--- a/Metadonnees.xlsx
+++ b/Metadonnees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\85\25-T_Normandie_SEAP\03_ENVIRONNEMENT\Apprenti Mattéo\Mission 2\projet python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{410DE69C-6596-4E80-AAD9-4840F5D07CC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3533B9DF-A45C-40EE-9BC0-17ED712C7A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C0AAFE56-323A-4AA3-A453-F318071692D0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6058" uniqueCount="1008">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6058" uniqueCount="1005">
   <si>
     <t>Cat_naturaliste</t>
   </si>
@@ -3063,15 +3063,6 @@
   </si>
   <si>
     <t>Si nidification de Choucas des tours localisée, consigne de martelage : réserver l'abre porteur de nid en arbre bio. Ne pas créer de cloisonnement sur la trajectoire de l'arbre en question.</t>
-  </si>
-  <si>
-    <t>Si nidification de Sitelle torchepot localisée, consigne de martelage : réserver l'abre porteur de nid en arbre bio. Ne pas créer de cloisonnement sur la trajectoire de l'arbre en question.</t>
-  </si>
-  <si>
-    <t>Si nidification de Pic vert localisée, consigne de martelage : réserver l'abre porteur de nid en arbre bio. Ne pas créer de cloisonnement sur la trajectoire de l'arbre en question.</t>
-  </si>
-  <si>
-    <t>Si nidification de Pic épeiche localisée, consigne de martelage : réserver l'abre porteur de nid en arbre bio. Ne pas créer de cloisonnement sur la trajectoire de l'arbre en question.</t>
   </si>
   <si>
     <t>Faire remonter la clause via la fiche chantier. Espèce très rare. Contacter SEAP.</t>
@@ -3448,8 +3439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32DFB322-0C0C-4C14-830F-4BADDD5E88B6}">
   <dimension ref="A1:AC251"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="J144" workbookViewId="0">
+      <selection activeCell="AA169" sqref="AA169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18260,7 +18251,7 @@
         <v>1</v>
       </c>
       <c r="L167">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M167" t="s">
         <v>908</v>
@@ -18278,7 +18269,7 @@
         <v>905</v>
       </c>
       <c r="R167" t="s">
-        <v>38</v>
+        <v>213</v>
       </c>
       <c r="S167" t="s">
         <v>39</v>
@@ -18305,7 +18296,7 @@
         <v>908</v>
       </c>
       <c r="AA167" t="s">
-        <v>1004</v>
+        <v>919</v>
       </c>
       <c r="AB167" t="s">
         <v>908</v>
@@ -19106,7 +19097,7 @@
         <v>908</v>
       </c>
       <c r="AA176" t="s">
-        <v>1005</v>
+        <v>919</v>
       </c>
       <c r="AB176" t="s">
         <v>908</v>
@@ -19195,7 +19186,7 @@
         <v>908</v>
       </c>
       <c r="AA177" t="s">
-        <v>1006</v>
+        <v>919</v>
       </c>
       <c r="AB177" t="s">
         <v>908</v>
@@ -25514,7 +25505,7 @@
         <v>908</v>
       </c>
       <c r="AA248" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="AB248" t="s">
         <v>984</v>

--- a/Metadonnees.xlsx
+++ b/Metadonnees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk69074\Projet python\depot_github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E651DF-4CCA-43B4-AB01-EFF578CC0D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C63B47-7976-4F1D-A612-15F79112E510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C0AAFE56-323A-4AA3-A453-F318071692D0}"/>
   </bookViews>
@@ -3425,9 +3425,6 @@
     <t>Si présence de l'espèce localisée</t>
   </si>
   <si>
-    <t>Etablir un périmètre de protection comprenant l'ensemble des spécimens identifiés. Faire figurer cette zone sur un plan et la signaler en annexe de la fiche considérée. Faire remonter la clause via la fiche désignation ou chantier selon les cas. En cas de très grandes stations ou de spécimens présents sur cloisonnements/pistes, contacter SEAP.</t>
-  </si>
-  <si>
     <t>Hyménophyllum de Wilson</t>
   </si>
   <si>
@@ -5072,7 +5069,10 @@
     <t>Si on est en Basse Normandie et si présence de l'espèce localisée</t>
   </si>
   <si>
-    <t>Etablir un périmètre de protection comprenant tous les individus de Cladonia rangiferina. Faire figurer cette zone sur un plan et la signaler en annexe de la fiche considérée. Faire remonter la clause via la fiche désignation ou chantier selon les cas. Si Cladonia rangiferina sur frêne chalarosé, contacter le SEAP.</t>
+    <t>Etablir un périmètre de protection comprenant l'ensemble des spécimens identifiés. Faire figurer cette zone sur un plan et la signaler en annexe de la fiche considérée. Matérialiser cette zone sur le terrain avant les interventions sylvicoles. Faire remonter la clause via la fiche désignation ou chantier selon les cas. En cas de très grandes stations ou de spécimens présents sur cloisonnements/pistes, contacter SEAP.</t>
+  </si>
+  <si>
+    <t>Etablir un périmètre de protection comprenant tous les individus de Cladonia rangiferina. Faire figurer cette zone sur un plan et la signaler en annexe de la fiche considérée. Faire remonter la clause via la fiche désignation ou chantier selon les cas.</t>
   </si>
 </sst>
 </file>
@@ -5446,8 +5446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32DFB322-0C0C-4C14-830F-4BADDD5E88B6}">
   <dimension ref="A1:AD492"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="AE9" sqref="AE9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5475,7 +5475,7 @@
         <v>619</v>
       </c>
       <c r="F1" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -5567,7 +5567,7 @@
         <v>623</v>
       </c>
       <c r="F2" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="G2" t="s">
         <v>624</v>
@@ -5659,7 +5659,7 @@
         <v>625</v>
       </c>
       <c r="F3" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G3" t="s">
         <v>626</v>
@@ -5751,7 +5751,7 @@
         <v>627</v>
       </c>
       <c r="F4" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="G4" t="s">
         <v>628</v>
@@ -5843,7 +5843,7 @@
         <v>625</v>
       </c>
       <c r="F5" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G5" t="s">
         <v>629</v>
@@ -5935,7 +5935,7 @@
         <v>625</v>
       </c>
       <c r="F6" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="G6" t="s">
         <v>630</v>
@@ -6027,7 +6027,7 @@
         <v>625</v>
       </c>
       <c r="F7" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="G7" t="s">
         <v>631</v>
@@ -6119,7 +6119,7 @@
         <v>632</v>
       </c>
       <c r="F8" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="G8" t="s">
         <v>633</v>
@@ -6211,7 +6211,7 @@
         <v>625</v>
       </c>
       <c r="F9" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="G9" t="s">
         <v>634</v>
@@ -6303,7 +6303,7 @@
         <v>627</v>
       </c>
       <c r="F10" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="G10" t="s">
         <v>635</v>
@@ -6395,7 +6395,7 @@
         <v>636</v>
       </c>
       <c r="F11" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="G11" t="s">
         <v>637</v>
@@ -6487,7 +6487,7 @@
         <v>638</v>
       </c>
       <c r="F12" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="G12" t="s">
         <v>639</v>
@@ -6579,7 +6579,7 @@
         <v>640</v>
       </c>
       <c r="F13" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="G13" t="s">
         <v>641</v>
@@ -6671,7 +6671,7 @@
         <v>627</v>
       </c>
       <c r="F14" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="G14" t="s">
         <v>642</v>
@@ -6763,7 +6763,7 @@
         <v>640</v>
       </c>
       <c r="F15" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="G15" t="s">
         <v>643</v>
@@ -6855,7 +6855,7 @@
         <v>625</v>
       </c>
       <c r="F16" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="G16" t="s">
         <v>644</v>
@@ -6947,7 +6947,7 @@
         <v>627</v>
       </c>
       <c r="F17" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="G17" t="s">
         <v>645</v>
@@ -7039,7 +7039,7 @@
         <v>640</v>
       </c>
       <c r="F18" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="G18" t="s">
         <v>646</v>
@@ -7131,7 +7131,7 @@
         <v>647</v>
       </c>
       <c r="F19" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="G19" t="s">
         <v>58</v>
@@ -7223,7 +7223,7 @@
         <v>648</v>
       </c>
       <c r="F20" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="G20" t="s">
         <v>528</v>
@@ -7315,7 +7315,7 @@
         <v>649</v>
       </c>
       <c r="F21" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="G21" t="s">
         <v>528</v>
@@ -7407,7 +7407,7 @@
         <v>648</v>
       </c>
       <c r="F22" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="G22" t="s">
         <v>528</v>
@@ -7499,7 +7499,7 @@
         <v>650</v>
       </c>
       <c r="F23" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="G23" t="s">
         <v>528</v>
@@ -7591,7 +7591,7 @@
         <v>655</v>
       </c>
       <c r="F24" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="G24" t="s">
         <v>656</v>
@@ -7683,7 +7683,7 @@
         <v>657</v>
       </c>
       <c r="F25" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="G25" t="s">
         <v>658</v>
@@ -7775,7 +7775,7 @@
         <v>659</v>
       </c>
       <c r="F26" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="G26" t="s">
         <v>87</v>
@@ -7867,7 +7867,7 @@
         <v>657</v>
       </c>
       <c r="F27" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="G27" t="s">
         <v>89</v>
@@ -7959,7 +7959,7 @@
         <v>660</v>
       </c>
       <c r="F28" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="G28" t="s">
         <v>661</v>
@@ -8051,7 +8051,7 @@
         <v>662</v>
       </c>
       <c r="F29" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="G29" t="s">
         <v>663</v>
@@ -8143,7 +8143,7 @@
         <v>664</v>
       </c>
       <c r="F30" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="G30" t="s">
         <v>666</v>
@@ -8235,7 +8235,7 @@
         <v>664</v>
       </c>
       <c r="F31" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="G31" t="s">
         <v>665</v>
@@ -8327,7 +8327,7 @@
         <v>971</v>
       </c>
       <c r="F32" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="G32" t="s">
         <v>1071</v>
@@ -8393,7 +8393,7 @@
         <v>78</v>
       </c>
       <c r="AB32" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC32" t="s">
         <v>531</v>
@@ -8419,7 +8419,7 @@
         <v>874</v>
       </c>
       <c r="F33" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="G33" t="s">
         <v>1072</v>
@@ -8467,7 +8467,7 @@
         <v>33</v>
       </c>
       <c r="V33" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="W33" t="s">
         <v>74</v>
@@ -8485,7 +8485,7 @@
         <v>78</v>
       </c>
       <c r="AB33" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC33" t="s">
         <v>531</v>
@@ -8511,10 +8511,10 @@
         <v>895</v>
       </c>
       <c r="F34" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="G34" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="H34" t="s">
         <v>46</v>
@@ -8577,7 +8577,7 @@
         <v>78</v>
       </c>
       <c r="AB34" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC34" t="s">
         <v>531</v>
@@ -8603,7 +8603,7 @@
         <v>863</v>
       </c>
       <c r="F35" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G35" t="s">
         <v>879</v>
@@ -8669,7 +8669,7 @@
         <v>78</v>
       </c>
       <c r="AB35" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC35" t="s">
         <v>531</v>
@@ -8695,7 +8695,7 @@
         <v>841</v>
       </c>
       <c r="F36" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="G36" t="s">
         <v>842</v>
@@ -8761,7 +8761,7 @@
         <v>78</v>
       </c>
       <c r="AB36" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC36" t="s">
         <v>531</v>
@@ -8787,7 +8787,7 @@
         <v>937</v>
       </c>
       <c r="F37" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="G37" t="s">
         <v>1074</v>
@@ -8853,7 +8853,7 @@
         <v>78</v>
       </c>
       <c r="AB37" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC37" t="s">
         <v>531</v>
@@ -8879,7 +8879,7 @@
         <v>845</v>
       </c>
       <c r="F38" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="G38" t="s">
         <v>846</v>
@@ -8927,7 +8927,7 @@
         <v>33</v>
       </c>
       <c r="V38" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W38" t="s">
         <v>74</v>
@@ -8945,7 +8945,7 @@
         <v>78</v>
       </c>
       <c r="AB38" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC38" t="s">
         <v>531</v>
@@ -8971,7 +8971,7 @@
         <v>851</v>
       </c>
       <c r="F39" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="G39" t="s">
         <v>852</v>
@@ -9037,7 +9037,7 @@
         <v>78</v>
       </c>
       <c r="AB39" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC39" t="s">
         <v>531</v>
@@ -9063,7 +9063,7 @@
         <v>848</v>
       </c>
       <c r="F40" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="G40" t="s">
         <v>1075</v>
@@ -9111,7 +9111,7 @@
         <v>33</v>
       </c>
       <c r="V40" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="W40" t="s">
         <v>74</v>
@@ -9129,7 +9129,7 @@
         <v>78</v>
       </c>
       <c r="AB40" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC40" t="s">
         <v>531</v>
@@ -9155,7 +9155,7 @@
         <v>848</v>
       </c>
       <c r="F41" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="G41" t="s">
         <v>1076</v>
@@ -9203,7 +9203,7 @@
         <v>33</v>
       </c>
       <c r="V41" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="W41" t="s">
         <v>74</v>
@@ -9221,7 +9221,7 @@
         <v>78</v>
       </c>
       <c r="AB41" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC41" t="s">
         <v>531</v>
@@ -9247,7 +9247,7 @@
         <v>841</v>
       </c>
       <c r="F42" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="G42" t="s">
         <v>1120</v>
@@ -9313,7 +9313,7 @@
         <v>78</v>
       </c>
       <c r="AB42" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC42" t="s">
         <v>531</v>
@@ -9339,7 +9339,7 @@
         <v>865</v>
       </c>
       <c r="F43" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="G43" t="s">
         <v>866</v>
@@ -9387,7 +9387,7 @@
         <v>33</v>
       </c>
       <c r="V43" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W43" t="s">
         <v>74</v>
@@ -9405,7 +9405,7 @@
         <v>78</v>
       </c>
       <c r="AB43" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC43" t="s">
         <v>531</v>
@@ -9431,7 +9431,7 @@
         <v>871</v>
       </c>
       <c r="F44" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="G44" t="s">
         <v>872</v>
@@ -9479,7 +9479,7 @@
         <v>33</v>
       </c>
       <c r="V44" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W44" t="s">
         <v>74</v>
@@ -9497,7 +9497,7 @@
         <v>78</v>
       </c>
       <c r="AB44" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC44" t="s">
         <v>531</v>
@@ -9523,7 +9523,7 @@
         <v>874</v>
       </c>
       <c r="F45" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="G45" t="s">
         <v>875</v>
@@ -9589,7 +9589,7 @@
         <v>78</v>
       </c>
       <c r="AB45" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC45" t="s">
         <v>531</v>
@@ -9615,7 +9615,7 @@
         <v>848</v>
       </c>
       <c r="F46" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="G46" t="s">
         <v>854</v>
@@ -9681,7 +9681,7 @@
         <v>78</v>
       </c>
       <c r="AB46" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC46" t="s">
         <v>531</v>
@@ -9707,7 +9707,7 @@
         <v>874</v>
       </c>
       <c r="F47" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="G47" t="s">
         <v>1080</v>
@@ -9773,7 +9773,7 @@
         <v>78</v>
       </c>
       <c r="AB47" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC47" t="s">
         <v>531</v>
@@ -9799,7 +9799,7 @@
         <v>838</v>
       </c>
       <c r="F48" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="G48" t="s">
         <v>839</v>
@@ -9865,7 +9865,7 @@
         <v>78</v>
       </c>
       <c r="AB48" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC48" t="s">
         <v>531</v>
@@ -9891,7 +9891,7 @@
         <v>919</v>
       </c>
       <c r="F49" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="G49" t="s">
         <v>1073</v>
@@ -9957,7 +9957,7 @@
         <v>78</v>
       </c>
       <c r="AB49" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC49" t="s">
         <v>531</v>
@@ -9983,7 +9983,7 @@
         <v>851</v>
       </c>
       <c r="F50" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="G50" t="s">
         <v>1121</v>
@@ -10049,7 +10049,7 @@
         <v>78</v>
       </c>
       <c r="AB50" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC50" t="s">
         <v>531</v>
@@ -10075,10 +10075,10 @@
         <v>889</v>
       </c>
       <c r="F51" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="G51" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="H51" t="s">
         <v>46</v>
@@ -10141,7 +10141,7 @@
         <v>78</v>
       </c>
       <c r="AB51" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC51" t="s">
         <v>531</v>
@@ -10167,7 +10167,7 @@
         <v>834</v>
       </c>
       <c r="F52" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="G52" t="s">
         <v>835</v>
@@ -10215,7 +10215,7 @@
         <v>33</v>
       </c>
       <c r="V52" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W52" t="s">
         <v>74</v>
@@ -10233,7 +10233,7 @@
         <v>78</v>
       </c>
       <c r="AB52" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC52" t="s">
         <v>531</v>
@@ -10259,7 +10259,7 @@
         <v>848</v>
       </c>
       <c r="F53" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="G53" t="s">
         <v>849</v>
@@ -10325,7 +10325,7 @@
         <v>78</v>
       </c>
       <c r="AB53" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC53" t="s">
         <v>531</v>
@@ -10351,7 +10351,7 @@
         <v>848</v>
       </c>
       <c r="F54" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="G54" t="s">
         <v>855</v>
@@ -10399,7 +10399,7 @@
         <v>33</v>
       </c>
       <c r="V54" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="W54" t="s">
         <v>74</v>
@@ -10417,7 +10417,7 @@
         <v>78</v>
       </c>
       <c r="AB54" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC54" t="s">
         <v>531</v>
@@ -10443,7 +10443,7 @@
         <v>845</v>
       </c>
       <c r="F55" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="G55" t="s">
         <v>857</v>
@@ -10491,7 +10491,7 @@
         <v>33</v>
       </c>
       <c r="V55" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W55" t="s">
         <v>74</v>
@@ -10509,7 +10509,7 @@
         <v>78</v>
       </c>
       <c r="AB55" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC55" t="s">
         <v>531</v>
@@ -10535,7 +10535,7 @@
         <v>916</v>
       </c>
       <c r="F56" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="G56" t="s">
         <v>1122</v>
@@ -10601,7 +10601,7 @@
         <v>78</v>
       </c>
       <c r="AB56" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC56" t="s">
         <v>531</v>
@@ -10627,7 +10627,7 @@
         <v>880</v>
       </c>
       <c r="F57" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="G57" t="s">
         <v>881</v>
@@ -10675,7 +10675,7 @@
         <v>33</v>
       </c>
       <c r="V57" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W57" t="s">
         <v>74</v>
@@ -10693,7 +10693,7 @@
         <v>78</v>
       </c>
       <c r="AB57" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC57" t="s">
         <v>531</v>
@@ -10719,7 +10719,7 @@
         <v>895</v>
       </c>
       <c r="F58" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="G58" t="s">
         <v>926</v>
@@ -10785,7 +10785,7 @@
         <v>78</v>
       </c>
       <c r="AB58" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC58" t="s">
         <v>531</v>
@@ -10811,7 +10811,7 @@
         <v>1057</v>
       </c>
       <c r="F59" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="G59" t="s">
         <v>1058</v>
@@ -10877,7 +10877,7 @@
         <v>78</v>
       </c>
       <c r="AB59" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC59" t="s">
         <v>531</v>
@@ -10903,7 +10903,7 @@
         <v>834</v>
       </c>
       <c r="F60" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="G60" t="s">
         <v>1115</v>
@@ -10951,7 +10951,7 @@
         <v>33</v>
       </c>
       <c r="V60" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="W60" t="s">
         <v>74</v>
@@ -10969,7 +10969,7 @@
         <v>78</v>
       </c>
       <c r="AB60" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC60" t="s">
         <v>531</v>
@@ -10995,7 +10995,7 @@
         <v>916</v>
       </c>
       <c r="F61" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="G61" t="s">
         <v>1118</v>
@@ -11043,7 +11043,7 @@
         <v>33</v>
       </c>
       <c r="V61" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="W61" t="s">
         <v>74</v>
@@ -11061,7 +11061,7 @@
         <v>78</v>
       </c>
       <c r="AB61" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC61" t="s">
         <v>531</v>
@@ -11087,10 +11087,10 @@
         <v>851</v>
       </c>
       <c r="F62" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="G62" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="H62" t="s">
         <v>49</v>
@@ -11135,7 +11135,7 @@
         <v>33</v>
       </c>
       <c r="V62" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="W62" t="s">
         <v>74</v>
@@ -11153,7 +11153,7 @@
         <v>78</v>
       </c>
       <c r="AB62" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC62" t="s">
         <v>531</v>
@@ -11179,10 +11179,10 @@
         <v>900</v>
       </c>
       <c r="F63" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="G63" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="H63" t="s">
         <v>49</v>
@@ -11227,7 +11227,7 @@
         <v>33</v>
       </c>
       <c r="V63" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W63" t="s">
         <v>74</v>
@@ -11245,7 +11245,7 @@
         <v>78</v>
       </c>
       <c r="AB63" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC63" t="s">
         <v>531</v>
@@ -11271,7 +11271,7 @@
         <v>903</v>
       </c>
       <c r="F64" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="G64" t="s">
         <v>904</v>
@@ -11337,7 +11337,7 @@
         <v>78</v>
       </c>
       <c r="AB64" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC64" t="s">
         <v>531</v>
@@ -11363,7 +11363,7 @@
         <v>874</v>
       </c>
       <c r="F65" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="G65" t="s">
         <v>878</v>
@@ -11429,7 +11429,7 @@
         <v>78</v>
       </c>
       <c r="AB65" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC65" t="s">
         <v>531</v>
@@ -11455,7 +11455,7 @@
         <v>895</v>
       </c>
       <c r="F66" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="G66" t="s">
         <v>896</v>
@@ -11521,7 +11521,7 @@
         <v>78</v>
       </c>
       <c r="AB66" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC66" t="s">
         <v>531</v>
@@ -11547,7 +11547,7 @@
         <v>919</v>
       </c>
       <c r="F67" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="G67" t="s">
         <v>920</v>
@@ -11613,7 +11613,7 @@
         <v>78</v>
       </c>
       <c r="AB67" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC67" t="s">
         <v>531</v>
@@ -11639,7 +11639,7 @@
         <v>834</v>
       </c>
       <c r="F68" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="G68" t="s">
         <v>853</v>
@@ -11687,7 +11687,7 @@
         <v>33</v>
       </c>
       <c r="V68" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W68" t="s">
         <v>74</v>
@@ -11705,7 +11705,7 @@
         <v>78</v>
       </c>
       <c r="AB68" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC68" t="s">
         <v>531</v>
@@ -11731,7 +11731,7 @@
         <v>848</v>
       </c>
       <c r="F69" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="G69" t="s">
         <v>856</v>
@@ -11797,7 +11797,7 @@
         <v>78</v>
       </c>
       <c r="AB69" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC69" t="s">
         <v>531</v>
@@ -11823,7 +11823,7 @@
         <v>859</v>
       </c>
       <c r="F70" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="G70" t="s">
         <v>860</v>
@@ -11871,7 +11871,7 @@
         <v>33</v>
       </c>
       <c r="V70" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W70" t="s">
         <v>74</v>
@@ -11889,7 +11889,7 @@
         <v>78</v>
       </c>
       <c r="AB70" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC70" t="s">
         <v>531</v>
@@ -11915,7 +11915,7 @@
         <v>838</v>
       </c>
       <c r="F71" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="G71" t="s">
         <v>861</v>
@@ -11981,7 +11981,7 @@
         <v>78</v>
       </c>
       <c r="AB71" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC71" t="s">
         <v>531</v>
@@ -12007,7 +12007,7 @@
         <v>863</v>
       </c>
       <c r="F72" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="G72" t="s">
         <v>864</v>
@@ -12055,7 +12055,7 @@
         <v>33</v>
       </c>
       <c r="V72" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W72" t="s">
         <v>74</v>
@@ -12073,7 +12073,7 @@
         <v>78</v>
       </c>
       <c r="AB72" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC72" t="s">
         <v>531</v>
@@ -12099,7 +12099,7 @@
         <v>868</v>
       </c>
       <c r="F73" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="G73" t="s">
         <v>869</v>
@@ -12147,7 +12147,7 @@
         <v>33</v>
       </c>
       <c r="V73" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W73" t="s">
         <v>74</v>
@@ -12165,7 +12165,7 @@
         <v>78</v>
       </c>
       <c r="AB73" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC73" t="s">
         <v>531</v>
@@ -12191,7 +12191,7 @@
         <v>876</v>
       </c>
       <c r="F74" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="G74" t="s">
         <v>877</v>
@@ -12239,7 +12239,7 @@
         <v>33</v>
       </c>
       <c r="V74" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W74" t="s">
         <v>74</v>
@@ -12257,7 +12257,7 @@
         <v>78</v>
       </c>
       <c r="AB74" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC74" t="s">
         <v>531</v>
@@ -12283,7 +12283,7 @@
         <v>848</v>
       </c>
       <c r="F75" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="G75" t="s">
         <v>882</v>
@@ -12349,7 +12349,7 @@
         <v>78</v>
       </c>
       <c r="AB75" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC75" t="s">
         <v>531</v>
@@ -12375,7 +12375,7 @@
         <v>886</v>
       </c>
       <c r="F76" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="G76" t="s">
         <v>887</v>
@@ -12441,7 +12441,7 @@
         <v>78</v>
       </c>
       <c r="AB76" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC76" t="s">
         <v>531</v>
@@ -12467,7 +12467,7 @@
         <v>848</v>
       </c>
       <c r="F77" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="G77" t="s">
         <v>1077</v>
@@ -12515,7 +12515,7 @@
         <v>33</v>
       </c>
       <c r="V77" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="W77" t="s">
         <v>74</v>
@@ -12533,7 +12533,7 @@
         <v>78</v>
       </c>
       <c r="AB77" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC77" t="s">
         <v>531</v>
@@ -12559,7 +12559,7 @@
         <v>851</v>
       </c>
       <c r="F78" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="G78" t="s">
         <v>1078</v>
@@ -12607,7 +12607,7 @@
         <v>33</v>
       </c>
       <c r="V78" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="W78" t="s">
         <v>74</v>
@@ -12625,7 +12625,7 @@
         <v>78</v>
       </c>
       <c r="AB78" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC78" t="s">
         <v>531</v>
@@ -12651,10 +12651,10 @@
         <v>1040</v>
       </c>
       <c r="F79" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="G79" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="H79" t="s">
         <v>40</v>
@@ -12717,7 +12717,7 @@
         <v>78</v>
       </c>
       <c r="AB79" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC79" t="s">
         <v>531</v>
@@ -12740,13 +12740,13 @@
         <v>833</v>
       </c>
       <c r="E80" t="s">
+        <v>1129</v>
+      </c>
+      <c r="F80" t="s">
+        <v>1259</v>
+      </c>
+      <c r="G80" t="s">
         <v>1130</v>
-      </c>
-      <c r="F80" t="s">
-        <v>1260</v>
-      </c>
-      <c r="G80" t="s">
-        <v>1131</v>
       </c>
       <c r="H80" t="s">
         <v>40</v>
@@ -12809,7 +12809,7 @@
         <v>78</v>
       </c>
       <c r="AB80" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC80" t="s">
         <v>531</v>
@@ -12835,7 +12835,7 @@
         <v>884</v>
       </c>
       <c r="F81" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="G81" t="s">
         <v>885</v>
@@ -12901,7 +12901,7 @@
         <v>78</v>
       </c>
       <c r="AB81" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC81" t="s">
         <v>531</v>
@@ -12927,7 +12927,7 @@
         <v>889</v>
       </c>
       <c r="F82" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="G82" t="s">
         <v>890</v>
@@ -12993,7 +12993,7 @@
         <v>78</v>
       </c>
       <c r="AB82" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC82" t="s">
         <v>531</v>
@@ -13019,7 +13019,7 @@
         <v>892</v>
       </c>
       <c r="F83" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="G83" t="s">
         <v>893</v>
@@ -13067,7 +13067,7 @@
         <v>33</v>
       </c>
       <c r="V83" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W83" t="s">
         <v>74</v>
@@ -13085,7 +13085,7 @@
         <v>78</v>
       </c>
       <c r="AB83" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC83" t="s">
         <v>531</v>
@@ -13111,7 +13111,7 @@
         <v>880</v>
       </c>
       <c r="F84" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="G84" t="s">
         <v>897</v>
@@ -13177,7 +13177,7 @@
         <v>78</v>
       </c>
       <c r="AB84" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC84" t="s">
         <v>531</v>
@@ -13203,7 +13203,7 @@
         <v>898</v>
       </c>
       <c r="F85" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="G85" t="s">
         <v>899</v>
@@ -13251,7 +13251,7 @@
         <v>33</v>
       </c>
       <c r="V85" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W85" t="s">
         <v>74</v>
@@ -13269,7 +13269,7 @@
         <v>78</v>
       </c>
       <c r="AB85" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC85" t="s">
         <v>531</v>
@@ -13295,7 +13295,7 @@
         <v>900</v>
       </c>
       <c r="F86" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="G86" t="s">
         <v>901</v>
@@ -13343,7 +13343,7 @@
         <v>33</v>
       </c>
       <c r="V86" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W86" t="s">
         <v>74</v>
@@ -13361,7 +13361,7 @@
         <v>78</v>
       </c>
       <c r="AB86" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC86" t="s">
         <v>531</v>
@@ -13387,7 +13387,7 @@
         <v>903</v>
       </c>
       <c r="F87" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="G87" t="s">
         <v>904</v>
@@ -13453,7 +13453,7 @@
         <v>78</v>
       </c>
       <c r="AB87" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC87" t="s">
         <v>531</v>
@@ -13479,7 +13479,7 @@
         <v>876</v>
       </c>
       <c r="F88" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="G88" t="s">
         <v>905</v>
@@ -13527,7 +13527,7 @@
         <v>33</v>
       </c>
       <c r="V88" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W88" t="s">
         <v>74</v>
@@ -13545,7 +13545,7 @@
         <v>78</v>
       </c>
       <c r="AB88" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC88" t="s">
         <v>531</v>
@@ -13571,7 +13571,7 @@
         <v>851</v>
       </c>
       <c r="F89" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="G89" t="s">
         <v>906</v>
@@ -13637,7 +13637,7 @@
         <v>78</v>
       </c>
       <c r="AB89" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC89" t="s">
         <v>531</v>
@@ -13663,7 +13663,7 @@
         <v>908</v>
       </c>
       <c r="F90" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="G90" t="s">
         <v>909</v>
@@ -13729,7 +13729,7 @@
         <v>78</v>
       </c>
       <c r="AB90" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC90" t="s">
         <v>531</v>
@@ -13755,7 +13755,7 @@
         <v>848</v>
       </c>
       <c r="F91" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="G91" t="s">
         <v>910</v>
@@ -13821,7 +13821,7 @@
         <v>78</v>
       </c>
       <c r="AB91" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC91" t="s">
         <v>531</v>
@@ -13847,7 +13847,7 @@
         <v>868</v>
       </c>
       <c r="F92" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="G92" t="s">
         <v>911</v>
@@ -13913,7 +13913,7 @@
         <v>78</v>
       </c>
       <c r="AB92" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC92" t="s">
         <v>531</v>
@@ -13939,7 +13939,7 @@
         <v>834</v>
       </c>
       <c r="F93" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="G93" t="s">
         <v>912</v>
@@ -14005,7 +14005,7 @@
         <v>78</v>
       </c>
       <c r="AB93" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC93" t="s">
         <v>531</v>
@@ -14031,7 +14031,7 @@
         <v>848</v>
       </c>
       <c r="F94" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="G94" t="s">
         <v>913</v>
@@ -14079,7 +14079,7 @@
         <v>33</v>
       </c>
       <c r="V94" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W94" t="s">
         <v>74</v>
@@ -14097,7 +14097,7 @@
         <v>78</v>
       </c>
       <c r="AB94" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC94" t="s">
         <v>531</v>
@@ -14123,7 +14123,7 @@
         <v>880</v>
       </c>
       <c r="F95" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="G95" t="s">
         <v>914</v>
@@ -14189,7 +14189,7 @@
         <v>78</v>
       </c>
       <c r="AB95" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC95" t="s">
         <v>531</v>
@@ -14215,7 +14215,7 @@
         <v>874</v>
       </c>
       <c r="F96" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="G96" t="s">
         <v>915</v>
@@ -14263,7 +14263,7 @@
         <v>33</v>
       </c>
       <c r="V96" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W96" t="s">
         <v>74</v>
@@ -14281,7 +14281,7 @@
         <v>78</v>
       </c>
       <c r="AB96" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC96" t="s">
         <v>531</v>
@@ -14307,7 +14307,7 @@
         <v>916</v>
       </c>
       <c r="F97" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="G97" t="s">
         <v>917</v>
@@ -14373,7 +14373,7 @@
         <v>78</v>
       </c>
       <c r="AB97" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC97" t="s">
         <v>531</v>
@@ -14399,7 +14399,7 @@
         <v>834</v>
       </c>
       <c r="F98" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="G98" t="s">
         <v>918</v>
@@ -14447,7 +14447,7 @@
         <v>33</v>
       </c>
       <c r="V98" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W98" t="s">
         <v>74</v>
@@ -14465,7 +14465,7 @@
         <v>78</v>
       </c>
       <c r="AB98" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC98" t="s">
         <v>531</v>
@@ -14491,7 +14491,7 @@
         <v>868</v>
       </c>
       <c r="F99" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="G99" t="s">
         <v>921</v>
@@ -14539,7 +14539,7 @@
         <v>33</v>
       </c>
       <c r="V99" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W99" t="s">
         <v>74</v>
@@ -14557,7 +14557,7 @@
         <v>78</v>
       </c>
       <c r="AB99" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC99" t="s">
         <v>531</v>
@@ -14583,7 +14583,7 @@
         <v>851</v>
       </c>
       <c r="F100" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="G100" t="s">
         <v>922</v>
@@ -14649,7 +14649,7 @@
         <v>78</v>
       </c>
       <c r="AB100" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC100" t="s">
         <v>531</v>
@@ -14675,7 +14675,7 @@
         <v>884</v>
       </c>
       <c r="F101" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="G101" t="s">
         <v>923</v>
@@ -14741,7 +14741,7 @@
         <v>78</v>
       </c>
       <c r="AB101" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC101" t="s">
         <v>531</v>
@@ -14767,7 +14767,7 @@
         <v>884</v>
       </c>
       <c r="F102" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="G102" t="s">
         <v>924</v>
@@ -14806,7 +14806,7 @@
         <v>528</v>
       </c>
       <c r="S102" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="T102" t="s">
         <v>48</v>
@@ -14833,7 +14833,7 @@
         <v>78</v>
       </c>
       <c r="AB102" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC102" t="s">
         <v>531</v>
@@ -14859,7 +14859,7 @@
         <v>848</v>
       </c>
       <c r="F103" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="G103" t="s">
         <v>925</v>
@@ -14925,7 +14925,7 @@
         <v>78</v>
       </c>
       <c r="AB103" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC103" t="s">
         <v>531</v>
@@ -14951,7 +14951,7 @@
         <v>884</v>
       </c>
       <c r="F104" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="G104" t="s">
         <v>927</v>
@@ -14999,7 +14999,7 @@
         <v>33</v>
       </c>
       <c r="V104" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W104" t="s">
         <v>74</v>
@@ -15017,7 +15017,7 @@
         <v>78</v>
       </c>
       <c r="AB104" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC104" t="s">
         <v>531</v>
@@ -15043,7 +15043,7 @@
         <v>928</v>
       </c>
       <c r="F105" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="G105" t="s">
         <v>929</v>
@@ -15091,7 +15091,7 @@
         <v>33</v>
       </c>
       <c r="V105" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W105" t="s">
         <v>74</v>
@@ -15109,7 +15109,7 @@
         <v>78</v>
       </c>
       <c r="AB105" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC105" t="s">
         <v>531</v>
@@ -15135,7 +15135,7 @@
         <v>834</v>
       </c>
       <c r="F106" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="G106" t="s">
         <v>930</v>
@@ -15183,7 +15183,7 @@
         <v>33</v>
       </c>
       <c r="V106" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W106" t="s">
         <v>74</v>
@@ -15201,7 +15201,7 @@
         <v>78</v>
       </c>
       <c r="AB106" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC106" t="s">
         <v>531</v>
@@ -15227,7 +15227,7 @@
         <v>871</v>
       </c>
       <c r="F107" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="G107" t="s">
         <v>931</v>
@@ -15275,7 +15275,7 @@
         <v>33</v>
       </c>
       <c r="V107" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W107" t="s">
         <v>74</v>
@@ -15293,7 +15293,7 @@
         <v>78</v>
       </c>
       <c r="AB107" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC107" t="s">
         <v>531</v>
@@ -15319,7 +15319,7 @@
         <v>848</v>
       </c>
       <c r="F108" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="G108" t="s">
         <v>932</v>
@@ -15385,7 +15385,7 @@
         <v>78</v>
       </c>
       <c r="AB108" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC108" t="s">
         <v>531</v>
@@ -15411,7 +15411,7 @@
         <v>933</v>
       </c>
       <c r="F109" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="G109" t="s">
         <v>934</v>
@@ -15459,7 +15459,7 @@
         <v>33</v>
       </c>
       <c r="V109" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W109" t="s">
         <v>74</v>
@@ -15477,7 +15477,7 @@
         <v>78</v>
       </c>
       <c r="AB109" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC109" t="s">
         <v>531</v>
@@ -15503,7 +15503,7 @@
         <v>863</v>
       </c>
       <c r="F110" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="G110" t="s">
         <v>935</v>
@@ -15551,7 +15551,7 @@
         <v>33</v>
       </c>
       <c r="V110" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W110" t="s">
         <v>74</v>
@@ -15569,7 +15569,7 @@
         <v>78</v>
       </c>
       <c r="AB110" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC110" t="s">
         <v>531</v>
@@ -15595,7 +15595,7 @@
         <v>937</v>
       </c>
       <c r="F111" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="G111" t="s">
         <v>938</v>
@@ -15643,7 +15643,7 @@
         <v>33</v>
       </c>
       <c r="V111" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W111" t="s">
         <v>74</v>
@@ -15661,7 +15661,7 @@
         <v>78</v>
       </c>
       <c r="AB111" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC111" t="s">
         <v>531</v>
@@ -15687,7 +15687,7 @@
         <v>851</v>
       </c>
       <c r="F112" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="G112" t="s">
         <v>939</v>
@@ -15735,7 +15735,7 @@
         <v>33</v>
       </c>
       <c r="V112" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W112" t="s">
         <v>74</v>
@@ -15753,7 +15753,7 @@
         <v>78</v>
       </c>
       <c r="AB112" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC112" t="s">
         <v>531</v>
@@ -15779,7 +15779,7 @@
         <v>940</v>
       </c>
       <c r="F113" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="G113" t="s">
         <v>941</v>
@@ -15827,7 +15827,7 @@
         <v>33</v>
       </c>
       <c r="V113" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W113" t="s">
         <v>74</v>
@@ -15845,7 +15845,7 @@
         <v>78</v>
       </c>
       <c r="AB113" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC113" t="s">
         <v>531</v>
@@ -15871,7 +15871,7 @@
         <v>942</v>
       </c>
       <c r="F114" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="G114" t="s">
         <v>943</v>
@@ -15919,7 +15919,7 @@
         <v>33</v>
       </c>
       <c r="V114" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W114" t="s">
         <v>74</v>
@@ -15937,7 +15937,7 @@
         <v>78</v>
       </c>
       <c r="AB114" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC114" t="s">
         <v>531</v>
@@ -15963,7 +15963,7 @@
         <v>944</v>
       </c>
       <c r="F115" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="G115" t="s">
         <v>945</v>
@@ -16029,7 +16029,7 @@
         <v>78</v>
       </c>
       <c r="AB115" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC115" t="s">
         <v>531</v>
@@ -16055,7 +16055,7 @@
         <v>841</v>
       </c>
       <c r="F116" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="G116" t="s">
         <v>946</v>
@@ -16103,7 +16103,7 @@
         <v>33</v>
       </c>
       <c r="V116" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W116" t="s">
         <v>74</v>
@@ -16121,7 +16121,7 @@
         <v>78</v>
       </c>
       <c r="AB116" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC116" t="s">
         <v>531</v>
@@ -16147,7 +16147,7 @@
         <v>834</v>
       </c>
       <c r="F117" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="G117" t="s">
         <v>947</v>
@@ -16195,7 +16195,7 @@
         <v>33</v>
       </c>
       <c r="V117" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W117" t="s">
         <v>74</v>
@@ -16213,7 +16213,7 @@
         <v>78</v>
       </c>
       <c r="AB117" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC117" t="s">
         <v>531</v>
@@ -16239,7 +16239,7 @@
         <v>940</v>
       </c>
       <c r="F118" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="G118" t="s">
         <v>948</v>
@@ -16287,7 +16287,7 @@
         <v>33</v>
       </c>
       <c r="V118" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W118" t="s">
         <v>74</v>
@@ -16305,7 +16305,7 @@
         <v>78</v>
       </c>
       <c r="AB118" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC118" t="s">
         <v>531</v>
@@ -16331,7 +16331,7 @@
         <v>884</v>
       </c>
       <c r="F119" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="G119" t="s">
         <v>949</v>
@@ -16397,7 +16397,7 @@
         <v>78</v>
       </c>
       <c r="AB119" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC119" t="s">
         <v>531</v>
@@ -16423,7 +16423,7 @@
         <v>937</v>
       </c>
       <c r="F120" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="G120" t="s">
         <v>950</v>
@@ -16471,7 +16471,7 @@
         <v>33</v>
       </c>
       <c r="V120" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W120" t="s">
         <v>74</v>
@@ -16489,7 +16489,7 @@
         <v>78</v>
       </c>
       <c r="AB120" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC120" t="s">
         <v>531</v>
@@ -16515,7 +16515,7 @@
         <v>951</v>
       </c>
       <c r="F121" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="G121" t="s">
         <v>528</v>
@@ -16563,7 +16563,7 @@
         <v>33</v>
       </c>
       <c r="V121" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W121" t="s">
         <v>74</v>
@@ -16581,7 +16581,7 @@
         <v>78</v>
       </c>
       <c r="AB121" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC121" t="s">
         <v>531</v>
@@ -16607,7 +16607,7 @@
         <v>937</v>
       </c>
       <c r="F122" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="G122" t="s">
         <v>952</v>
@@ -16655,7 +16655,7 @@
         <v>33</v>
       </c>
       <c r="V122" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W122" t="s">
         <v>74</v>
@@ -16673,7 +16673,7 @@
         <v>78</v>
       </c>
       <c r="AB122" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC122" t="s">
         <v>531</v>
@@ -16699,7 +16699,7 @@
         <v>848</v>
       </c>
       <c r="F123" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="G123" t="s">
         <v>953</v>
@@ -16765,7 +16765,7 @@
         <v>78</v>
       </c>
       <c r="AB123" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC123" t="s">
         <v>531</v>
@@ -16791,7 +16791,7 @@
         <v>865</v>
       </c>
       <c r="F124" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="G124" t="s">
         <v>954</v>
@@ -16839,7 +16839,7 @@
         <v>33</v>
       </c>
       <c r="V124" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W124" t="s">
         <v>74</v>
@@ -16857,7 +16857,7 @@
         <v>78</v>
       </c>
       <c r="AB124" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC124" t="s">
         <v>531</v>
@@ -16883,7 +16883,7 @@
         <v>865</v>
       </c>
       <c r="F125" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="G125" t="s">
         <v>955</v>
@@ -16931,7 +16931,7 @@
         <v>33</v>
       </c>
       <c r="V125" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W125" t="s">
         <v>74</v>
@@ -16949,7 +16949,7 @@
         <v>78</v>
       </c>
       <c r="AB125" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC125" t="s">
         <v>531</v>
@@ -16975,7 +16975,7 @@
         <v>957</v>
       </c>
       <c r="F126" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="G126" t="s">
         <v>958</v>
@@ -17023,7 +17023,7 @@
         <v>33</v>
       </c>
       <c r="V126" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W126" t="s">
         <v>74</v>
@@ -17041,7 +17041,7 @@
         <v>78</v>
       </c>
       <c r="AB126" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC126" t="s">
         <v>531</v>
@@ -17067,7 +17067,7 @@
         <v>871</v>
       </c>
       <c r="F127" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="G127" t="s">
         <v>959</v>
@@ -17115,7 +17115,7 @@
         <v>33</v>
       </c>
       <c r="V127" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W127" t="s">
         <v>74</v>
@@ -17133,7 +17133,7 @@
         <v>78</v>
       </c>
       <c r="AB127" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC127" t="s">
         <v>531</v>
@@ -17159,7 +17159,7 @@
         <v>916</v>
       </c>
       <c r="F128" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="G128" t="s">
         <v>960</v>
@@ -17207,7 +17207,7 @@
         <v>33</v>
       </c>
       <c r="V128" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W128" t="s">
         <v>74</v>
@@ -17225,7 +17225,7 @@
         <v>78</v>
       </c>
       <c r="AB128" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC128" t="s">
         <v>531</v>
@@ -17251,7 +17251,7 @@
         <v>834</v>
       </c>
       <c r="F129" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="G129" t="s">
         <v>961</v>
@@ -17299,7 +17299,7 @@
         <v>33</v>
       </c>
       <c r="V129" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W129" t="s">
         <v>74</v>
@@ -17317,7 +17317,7 @@
         <v>78</v>
       </c>
       <c r="AB129" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC129" t="s">
         <v>531</v>
@@ -17343,7 +17343,7 @@
         <v>880</v>
       </c>
       <c r="F130" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="G130" t="s">
         <v>962</v>
@@ -17391,7 +17391,7 @@
         <v>33</v>
       </c>
       <c r="V130" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W130" t="s">
         <v>74</v>
@@ -17409,7 +17409,7 @@
         <v>78</v>
       </c>
       <c r="AB130" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC130" t="s">
         <v>531</v>
@@ -17435,7 +17435,7 @@
         <v>874</v>
       </c>
       <c r="F131" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="G131" t="s">
         <v>963</v>
@@ -17483,7 +17483,7 @@
         <v>33</v>
       </c>
       <c r="V131" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W131" t="s">
         <v>74</v>
@@ -17501,7 +17501,7 @@
         <v>78</v>
       </c>
       <c r="AB131" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC131" t="s">
         <v>531</v>
@@ -17527,7 +17527,7 @@
         <v>940</v>
       </c>
       <c r="F132" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="G132" t="s">
         <v>964</v>
@@ -17575,7 +17575,7 @@
         <v>33</v>
       </c>
       <c r="V132" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W132" t="s">
         <v>74</v>
@@ -17593,7 +17593,7 @@
         <v>78</v>
       </c>
       <c r="AB132" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC132" t="s">
         <v>531</v>
@@ -17619,7 +17619,7 @@
         <v>916</v>
       </c>
       <c r="F133" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="G133" t="s">
         <v>965</v>
@@ -17667,7 +17667,7 @@
         <v>33</v>
       </c>
       <c r="V133" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W133" t="s">
         <v>74</v>
@@ -17685,7 +17685,7 @@
         <v>78</v>
       </c>
       <c r="AB133" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC133" t="s">
         <v>531</v>
@@ -17711,7 +17711,7 @@
         <v>865</v>
       </c>
       <c r="F134" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="G134" t="s">
         <v>966</v>
@@ -17759,7 +17759,7 @@
         <v>33</v>
       </c>
       <c r="V134" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W134" t="s">
         <v>74</v>
@@ -17777,7 +17777,7 @@
         <v>78</v>
       </c>
       <c r="AB134" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC134" t="s">
         <v>531</v>
@@ -17803,7 +17803,7 @@
         <v>865</v>
       </c>
       <c r="F135" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="G135" t="s">
         <v>967</v>
@@ -17851,7 +17851,7 @@
         <v>33</v>
       </c>
       <c r="V135" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W135" t="s">
         <v>74</v>
@@ -17869,7 +17869,7 @@
         <v>78</v>
       </c>
       <c r="AB135" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC135" t="s">
         <v>531</v>
@@ -17895,7 +17895,7 @@
         <v>933</v>
       </c>
       <c r="F136" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="G136" t="s">
         <v>968</v>
@@ -17943,7 +17943,7 @@
         <v>33</v>
       </c>
       <c r="V136" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W136" t="s">
         <v>74</v>
@@ -17961,7 +17961,7 @@
         <v>78</v>
       </c>
       <c r="AB136" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC136" t="s">
         <v>531</v>
@@ -17987,7 +17987,7 @@
         <v>851</v>
       </c>
       <c r="F137" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="G137" t="s">
         <v>969</v>
@@ -18035,7 +18035,7 @@
         <v>33</v>
       </c>
       <c r="V137" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W137" t="s">
         <v>74</v>
@@ -18053,7 +18053,7 @@
         <v>78</v>
       </c>
       <c r="AB137" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC137" t="s">
         <v>531</v>
@@ -18079,7 +18079,7 @@
         <v>971</v>
       </c>
       <c r="F138" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="G138" t="s">
         <v>972</v>
@@ -18127,7 +18127,7 @@
         <v>33</v>
       </c>
       <c r="V138" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W138" t="s">
         <v>74</v>
@@ -18145,7 +18145,7 @@
         <v>78</v>
       </c>
       <c r="AB138" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC138" t="s">
         <v>531</v>
@@ -18171,7 +18171,7 @@
         <v>974</v>
       </c>
       <c r="F139" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="G139" t="s">
         <v>975</v>
@@ -18219,7 +18219,7 @@
         <v>33</v>
       </c>
       <c r="V139" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W139" t="s">
         <v>74</v>
@@ -18237,7 +18237,7 @@
         <v>78</v>
       </c>
       <c r="AB139" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC139" t="s">
         <v>531</v>
@@ -18263,7 +18263,7 @@
         <v>834</v>
       </c>
       <c r="F140" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="G140" t="s">
         <v>976</v>
@@ -18311,7 +18311,7 @@
         <v>33</v>
       </c>
       <c r="V140" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W140" t="s">
         <v>74</v>
@@ -18329,7 +18329,7 @@
         <v>78</v>
       </c>
       <c r="AB140" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC140" t="s">
         <v>531</v>
@@ -18355,7 +18355,7 @@
         <v>942</v>
       </c>
       <c r="F141" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="G141" t="s">
         <v>977</v>
@@ -18421,7 +18421,7 @@
         <v>78</v>
       </c>
       <c r="AB141" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC141" t="s">
         <v>531</v>
@@ -18447,7 +18447,7 @@
         <v>916</v>
       </c>
       <c r="F142" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="G142" t="s">
         <v>978</v>
@@ -18495,7 +18495,7 @@
         <v>33</v>
       </c>
       <c r="V142" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W142" t="s">
         <v>74</v>
@@ -18513,7 +18513,7 @@
         <v>78</v>
       </c>
       <c r="AB142" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC142" t="s">
         <v>531</v>
@@ -18539,7 +18539,7 @@
         <v>871</v>
       </c>
       <c r="F143" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="G143" t="s">
         <v>979</v>
@@ -18587,7 +18587,7 @@
         <v>33</v>
       </c>
       <c r="V143" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W143" t="s">
         <v>74</v>
@@ -18605,7 +18605,7 @@
         <v>78</v>
       </c>
       <c r="AB143" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC143" t="s">
         <v>531</v>
@@ -18631,7 +18631,7 @@
         <v>868</v>
       </c>
       <c r="F144" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="G144" t="s">
         <v>980</v>
@@ -18679,7 +18679,7 @@
         <v>33</v>
       </c>
       <c r="V144" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W144" t="s">
         <v>74</v>
@@ -18697,7 +18697,7 @@
         <v>78</v>
       </c>
       <c r="AB144" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC144" t="s">
         <v>531</v>
@@ -18723,7 +18723,7 @@
         <v>981</v>
       </c>
       <c r="F145" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="G145" t="s">
         <v>982</v>
@@ -18771,7 +18771,7 @@
         <v>33</v>
       </c>
       <c r="V145" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W145" t="s">
         <v>74</v>
@@ -18789,7 +18789,7 @@
         <v>78</v>
       </c>
       <c r="AB145" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC145" t="s">
         <v>531</v>
@@ -18815,7 +18815,7 @@
         <v>845</v>
       </c>
       <c r="F146" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="G146" t="s">
         <v>983</v>
@@ -18863,7 +18863,7 @@
         <v>33</v>
       </c>
       <c r="V146" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W146" t="s">
         <v>74</v>
@@ -18881,7 +18881,7 @@
         <v>78</v>
       </c>
       <c r="AB146" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC146" t="s">
         <v>531</v>
@@ -18907,7 +18907,7 @@
         <v>933</v>
       </c>
       <c r="F147" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="G147" t="s">
         <v>984</v>
@@ -18955,7 +18955,7 @@
         <v>33</v>
       </c>
       <c r="V147" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W147" t="s">
         <v>74</v>
@@ -18973,7 +18973,7 @@
         <v>78</v>
       </c>
       <c r="AB147" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC147" t="s">
         <v>531</v>
@@ -18999,7 +18999,7 @@
         <v>903</v>
       </c>
       <c r="F148" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="G148" t="s">
         <v>985</v>
@@ -19047,7 +19047,7 @@
         <v>33</v>
       </c>
       <c r="V148" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W148" t="s">
         <v>74</v>
@@ -19065,7 +19065,7 @@
         <v>78</v>
       </c>
       <c r="AB148" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC148" t="s">
         <v>531</v>
@@ -19091,7 +19091,7 @@
         <v>987</v>
       </c>
       <c r="F149" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="G149" t="s">
         <v>988</v>
@@ -19139,7 +19139,7 @@
         <v>33</v>
       </c>
       <c r="V149" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W149" t="s">
         <v>74</v>
@@ -19157,7 +19157,7 @@
         <v>78</v>
       </c>
       <c r="AB149" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC149" t="s">
         <v>531</v>
@@ -19183,7 +19183,7 @@
         <v>990</v>
       </c>
       <c r="F150" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="G150" t="s">
         <v>991</v>
@@ -19231,7 +19231,7 @@
         <v>33</v>
       </c>
       <c r="V150" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W150" t="s">
         <v>74</v>
@@ -19249,7 +19249,7 @@
         <v>78</v>
       </c>
       <c r="AB150" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC150" t="s">
         <v>531</v>
@@ -19275,7 +19275,7 @@
         <v>992</v>
       </c>
       <c r="F151" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="G151" t="s">
         <v>993</v>
@@ -19323,7 +19323,7 @@
         <v>33</v>
       </c>
       <c r="V151" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W151" t="s">
         <v>74</v>
@@ -19341,7 +19341,7 @@
         <v>78</v>
       </c>
       <c r="AB151" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC151" t="s">
         <v>531</v>
@@ -19367,7 +19367,7 @@
         <v>933</v>
       </c>
       <c r="F152" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="G152" t="s">
         <v>994</v>
@@ -19415,7 +19415,7 @@
         <v>33</v>
       </c>
       <c r="V152" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W152" t="s">
         <v>74</v>
@@ -19433,7 +19433,7 @@
         <v>78</v>
       </c>
       <c r="AB152" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC152" t="s">
         <v>531</v>
@@ -19459,7 +19459,7 @@
         <v>865</v>
       </c>
       <c r="F153" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="G153" t="s">
         <v>995</v>
@@ -19507,7 +19507,7 @@
         <v>33</v>
       </c>
       <c r="V153" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W153" t="s">
         <v>74</v>
@@ -19525,7 +19525,7 @@
         <v>78</v>
       </c>
       <c r="AB153" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC153" t="s">
         <v>531</v>
@@ -19551,7 +19551,7 @@
         <v>834</v>
       </c>
       <c r="F154" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="G154" t="s">
         <v>996</v>
@@ -19599,7 +19599,7 @@
         <v>33</v>
       </c>
       <c r="V154" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W154" t="s">
         <v>74</v>
@@ -19617,7 +19617,7 @@
         <v>78</v>
       </c>
       <c r="AB154" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC154" t="s">
         <v>531</v>
@@ -19643,7 +19643,7 @@
         <v>998</v>
       </c>
       <c r="F155" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="G155" t="s">
         <v>999</v>
@@ -19691,7 +19691,7 @@
         <v>33</v>
       </c>
       <c r="V155" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W155" t="s">
         <v>74</v>
@@ -19709,7 +19709,7 @@
         <v>78</v>
       </c>
       <c r="AB155" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC155" t="s">
         <v>531</v>
@@ -19735,7 +19735,7 @@
         <v>865</v>
       </c>
       <c r="F156" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="G156" t="s">
         <v>1000</v>
@@ -19783,7 +19783,7 @@
         <v>33</v>
       </c>
       <c r="V156" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W156" t="s">
         <v>74</v>
@@ -19801,7 +19801,7 @@
         <v>78</v>
       </c>
       <c r="AB156" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC156" t="s">
         <v>531</v>
@@ -19827,7 +19827,7 @@
         <v>884</v>
       </c>
       <c r="F157" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="G157" t="s">
         <v>1001</v>
@@ -19875,7 +19875,7 @@
         <v>33</v>
       </c>
       <c r="V157" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W157" t="s">
         <v>74</v>
@@ -19893,7 +19893,7 @@
         <v>78</v>
       </c>
       <c r="AB157" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC157" t="s">
         <v>531</v>
@@ -19919,7 +19919,7 @@
         <v>1002</v>
       </c>
       <c r="F158" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="G158" t="s">
         <v>1003</v>
@@ -19967,7 +19967,7 @@
         <v>33</v>
       </c>
       <c r="V158" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W158" t="s">
         <v>74</v>
@@ -19985,7 +19985,7 @@
         <v>78</v>
       </c>
       <c r="AB158" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC158" t="s">
         <v>531</v>
@@ -20011,7 +20011,7 @@
         <v>834</v>
       </c>
       <c r="F159" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G159" t="s">
         <v>1004</v>
@@ -20077,7 +20077,7 @@
         <v>78</v>
       </c>
       <c r="AB159" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC159" t="s">
         <v>531</v>
@@ -20103,7 +20103,7 @@
         <v>834</v>
       </c>
       <c r="F160" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="G160" t="s">
         <v>1005</v>
@@ -20151,7 +20151,7 @@
         <v>33</v>
       </c>
       <c r="V160" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W160" t="s">
         <v>74</v>
@@ -20169,7 +20169,7 @@
         <v>78</v>
       </c>
       <c r="AB160" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC160" t="s">
         <v>531</v>
@@ -20195,7 +20195,7 @@
         <v>1006</v>
       </c>
       <c r="F161" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="G161" t="s">
         <v>1007</v>
@@ -20261,7 +20261,7 @@
         <v>78</v>
       </c>
       <c r="AB161" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC161" t="s">
         <v>531</v>
@@ -20287,7 +20287,7 @@
         <v>851</v>
       </c>
       <c r="F162" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="G162" t="s">
         <v>1008</v>
@@ -20353,7 +20353,7 @@
         <v>78</v>
       </c>
       <c r="AB162" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC162" t="s">
         <v>531</v>
@@ -20379,7 +20379,7 @@
         <v>903</v>
       </c>
       <c r="F163" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="G163" t="s">
         <v>1009</v>
@@ -20427,7 +20427,7 @@
         <v>33</v>
       </c>
       <c r="V163" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W163" t="s">
         <v>74</v>
@@ -20445,7 +20445,7 @@
         <v>78</v>
       </c>
       <c r="AB163" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC163" t="s">
         <v>531</v>
@@ -20471,7 +20471,7 @@
         <v>841</v>
       </c>
       <c r="F164" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="G164" t="s">
         <v>1010</v>
@@ -20519,7 +20519,7 @@
         <v>33</v>
       </c>
       <c r="V164" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W164" t="s">
         <v>74</v>
@@ -20537,7 +20537,7 @@
         <v>78</v>
       </c>
       <c r="AB164" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC164" t="s">
         <v>531</v>
@@ -20563,7 +20563,7 @@
         <v>863</v>
       </c>
       <c r="F165" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="G165" t="s">
         <v>1011</v>
@@ -20611,7 +20611,7 @@
         <v>33</v>
       </c>
       <c r="V165" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W165" t="s">
         <v>74</v>
@@ -20629,7 +20629,7 @@
         <v>78</v>
       </c>
       <c r="AB165" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC165" t="s">
         <v>531</v>
@@ -20655,7 +20655,7 @@
         <v>1013</v>
       </c>
       <c r="F166" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="G166" t="s">
         <v>1014</v>
@@ -20703,7 +20703,7 @@
         <v>33</v>
       </c>
       <c r="V166" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W166" t="s">
         <v>74</v>
@@ -20721,7 +20721,7 @@
         <v>78</v>
       </c>
       <c r="AB166" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC166" t="s">
         <v>531</v>
@@ -20747,7 +20747,7 @@
         <v>1015</v>
       </c>
       <c r="F167" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="G167" t="s">
         <v>1016</v>
@@ -20795,7 +20795,7 @@
         <v>33</v>
       </c>
       <c r="V167" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W167" t="s">
         <v>74</v>
@@ -20813,7 +20813,7 @@
         <v>78</v>
       </c>
       <c r="AB167" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC167" t="s">
         <v>531</v>
@@ -20839,7 +20839,7 @@
         <v>1017</v>
       </c>
       <c r="F168" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="G168" t="s">
         <v>1018</v>
@@ -20887,7 +20887,7 @@
         <v>33</v>
       </c>
       <c r="V168" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W168" t="s">
         <v>74</v>
@@ -20905,7 +20905,7 @@
         <v>78</v>
       </c>
       <c r="AB168" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC168" t="s">
         <v>531</v>
@@ -20931,7 +20931,7 @@
         <v>880</v>
       </c>
       <c r="F169" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="G169" t="s">
         <v>1019</v>
@@ -20979,7 +20979,7 @@
         <v>33</v>
       </c>
       <c r="V169" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W169" t="s">
         <v>74</v>
@@ -20997,7 +20997,7 @@
         <v>78</v>
       </c>
       <c r="AB169" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC169" t="s">
         <v>531</v>
@@ -21023,7 +21023,7 @@
         <v>1021</v>
       </c>
       <c r="F170" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="G170" t="s">
         <v>1022</v>
@@ -21071,7 +21071,7 @@
         <v>33</v>
       </c>
       <c r="V170" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W170" t="s">
         <v>74</v>
@@ -21089,7 +21089,7 @@
         <v>78</v>
       </c>
       <c r="AB170" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC170" t="s">
         <v>531</v>
@@ -21115,7 +21115,7 @@
         <v>865</v>
       </c>
       <c r="F171" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="G171" t="s">
         <v>1023</v>
@@ -21163,7 +21163,7 @@
         <v>33</v>
       </c>
       <c r="V171" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W171" t="s">
         <v>74</v>
@@ -21181,7 +21181,7 @@
         <v>78</v>
       </c>
       <c r="AB171" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC171" t="s">
         <v>531</v>
@@ -21207,7 +21207,7 @@
         <v>933</v>
       </c>
       <c r="F172" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="G172" t="s">
         <v>1024</v>
@@ -21255,7 +21255,7 @@
         <v>33</v>
       </c>
       <c r="V172" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W172" t="s">
         <v>74</v>
@@ -21273,7 +21273,7 @@
         <v>78</v>
       </c>
       <c r="AB172" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC172" t="s">
         <v>531</v>
@@ -21299,7 +21299,7 @@
         <v>874</v>
       </c>
       <c r="F173" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="G173" t="s">
         <v>1025</v>
@@ -21347,7 +21347,7 @@
         <v>33</v>
       </c>
       <c r="V173" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W173" t="s">
         <v>74</v>
@@ -21365,7 +21365,7 @@
         <v>78</v>
       </c>
       <c r="AB173" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC173" t="s">
         <v>531</v>
@@ -21391,7 +21391,7 @@
         <v>916</v>
       </c>
       <c r="F174" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="G174" t="s">
         <v>1026</v>
@@ -21439,7 +21439,7 @@
         <v>33</v>
       </c>
       <c r="V174" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W174" t="s">
         <v>74</v>
@@ -21457,7 +21457,7 @@
         <v>78</v>
       </c>
       <c r="AB174" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC174" t="s">
         <v>531</v>
@@ -21483,7 +21483,7 @@
         <v>1028</v>
       </c>
       <c r="F175" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="G175" t="s">
         <v>1029</v>
@@ -21531,7 +21531,7 @@
         <v>33</v>
       </c>
       <c r="V175" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W175" t="s">
         <v>74</v>
@@ -21549,7 +21549,7 @@
         <v>78</v>
       </c>
       <c r="AB175" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC175" t="s">
         <v>531</v>
@@ -21575,7 +21575,7 @@
         <v>851</v>
       </c>
       <c r="F176" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="G176" t="s">
         <v>1030</v>
@@ -21623,7 +21623,7 @@
         <v>33</v>
       </c>
       <c r="V176" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W176" t="s">
         <v>74</v>
@@ -21641,7 +21641,7 @@
         <v>78</v>
       </c>
       <c r="AB176" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC176" t="s">
         <v>531</v>
@@ -21667,7 +21667,7 @@
         <v>865</v>
       </c>
       <c r="F177" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="G177" t="s">
         <v>1031</v>
@@ -21715,7 +21715,7 @@
         <v>33</v>
       </c>
       <c r="V177" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W177" t="s">
         <v>74</v>
@@ -21733,7 +21733,7 @@
         <v>78</v>
       </c>
       <c r="AB177" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC177" t="s">
         <v>531</v>
@@ -21759,7 +21759,7 @@
         <v>834</v>
       </c>
       <c r="F178" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="G178" t="s">
         <v>1032</v>
@@ -21825,7 +21825,7 @@
         <v>78</v>
       </c>
       <c r="AB178" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC178" t="s">
         <v>531</v>
@@ -21851,7 +21851,7 @@
         <v>903</v>
       </c>
       <c r="F179" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="G179" t="s">
         <v>1033</v>
@@ -21899,7 +21899,7 @@
         <v>33</v>
       </c>
       <c r="V179" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W179" t="s">
         <v>74</v>
@@ -21917,7 +21917,7 @@
         <v>78</v>
       </c>
       <c r="AB179" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC179" t="s">
         <v>531</v>
@@ -21943,7 +21943,7 @@
         <v>1002</v>
       </c>
       <c r="F180" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="G180" t="s">
         <v>1034</v>
@@ -21991,7 +21991,7 @@
         <v>33</v>
       </c>
       <c r="V180" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W180" t="s">
         <v>74</v>
@@ -22009,7 +22009,7 @@
         <v>78</v>
       </c>
       <c r="AB180" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC180" t="s">
         <v>531</v>
@@ -22035,7 +22035,7 @@
         <v>937</v>
       </c>
       <c r="F181" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="G181" t="s">
         <v>1035</v>
@@ -22083,7 +22083,7 @@
         <v>33</v>
       </c>
       <c r="V181" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W181" t="s">
         <v>74</v>
@@ -22101,7 +22101,7 @@
         <v>78</v>
       </c>
       <c r="AB181" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC181" t="s">
         <v>531</v>
@@ -22127,7 +22127,7 @@
         <v>1036</v>
       </c>
       <c r="F182" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="G182" t="s">
         <v>1037</v>
@@ -22175,7 +22175,7 @@
         <v>33</v>
       </c>
       <c r="V182" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W182" t="s">
         <v>74</v>
@@ -22193,7 +22193,7 @@
         <v>78</v>
       </c>
       <c r="AB182" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC182" t="s">
         <v>531</v>
@@ -22219,7 +22219,7 @@
         <v>848</v>
       </c>
       <c r="F183" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="G183" t="s">
         <v>1038</v>
@@ -22267,7 +22267,7 @@
         <v>33</v>
       </c>
       <c r="V183" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="W183" t="s">
         <v>74</v>
@@ -22285,7 +22285,7 @@
         <v>78</v>
       </c>
       <c r="AB183" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC183" t="s">
         <v>531</v>
@@ -22311,7 +22311,7 @@
         <v>868</v>
       </c>
       <c r="F184" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="G184" t="s">
         <v>1039</v>
@@ -22359,7 +22359,7 @@
         <v>33</v>
       </c>
       <c r="V184" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="W184" t="s">
         <v>74</v>
@@ -22377,7 +22377,7 @@
         <v>78</v>
       </c>
       <c r="AB184" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC184" t="s">
         <v>531</v>
@@ -22403,7 +22403,7 @@
         <v>1040</v>
       </c>
       <c r="F185" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="G185" t="s">
         <v>1041</v>
@@ -22469,7 +22469,7 @@
         <v>78</v>
       </c>
       <c r="AB185" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC185" t="s">
         <v>531</v>
@@ -22495,7 +22495,7 @@
         <v>1040</v>
       </c>
       <c r="F186" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="G186" t="s">
         <v>1042</v>
@@ -22561,7 +22561,7 @@
         <v>78</v>
       </c>
       <c r="AB186" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC186" t="s">
         <v>531</v>
@@ -22587,7 +22587,7 @@
         <v>1044</v>
       </c>
       <c r="F187" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="G187" t="s">
         <v>1045</v>
@@ -22635,7 +22635,7 @@
         <v>33</v>
       </c>
       <c r="V187" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W187" t="s">
         <v>74</v>
@@ -22653,7 +22653,7 @@
         <v>78</v>
       </c>
       <c r="AB187" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC187" t="s">
         <v>531</v>
@@ -22679,7 +22679,7 @@
         <v>1046</v>
       </c>
       <c r="F188" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="G188" t="s">
         <v>1047</v>
@@ -22727,7 +22727,7 @@
         <v>33</v>
       </c>
       <c r="V188" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W188" t="s">
         <v>74</v>
@@ -22745,7 +22745,7 @@
         <v>78</v>
       </c>
       <c r="AB188" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC188" t="s">
         <v>531</v>
@@ -22771,7 +22771,7 @@
         <v>1049</v>
       </c>
       <c r="F189" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="G189" t="s">
         <v>1050</v>
@@ -22819,7 +22819,7 @@
         <v>33</v>
       </c>
       <c r="V189" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W189" t="s">
         <v>74</v>
@@ -22837,7 +22837,7 @@
         <v>78</v>
       </c>
       <c r="AB189" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC189" t="s">
         <v>531</v>
@@ -22863,7 +22863,7 @@
         <v>900</v>
       </c>
       <c r="F190" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="G190" t="s">
         <v>1051</v>
@@ -22911,7 +22911,7 @@
         <v>33</v>
       </c>
       <c r="V190" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W190" t="s">
         <v>74</v>
@@ -22929,7 +22929,7 @@
         <v>78</v>
       </c>
       <c r="AB190" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC190" t="s">
         <v>531</v>
@@ -22955,7 +22955,7 @@
         <v>937</v>
       </c>
       <c r="F191" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="G191" t="s">
         <v>1052</v>
@@ -23003,7 +23003,7 @@
         <v>33</v>
       </c>
       <c r="V191" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W191" t="s">
         <v>74</v>
@@ -23021,7 +23021,7 @@
         <v>78</v>
       </c>
       <c r="AB191" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC191" t="s">
         <v>531</v>
@@ -23047,7 +23047,7 @@
         <v>903</v>
       </c>
       <c r="F192" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="G192" t="s">
         <v>1053</v>
@@ -23095,7 +23095,7 @@
         <v>33</v>
       </c>
       <c r="V192" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W192" t="s">
         <v>74</v>
@@ -23113,7 +23113,7 @@
         <v>78</v>
       </c>
       <c r="AB192" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC192" t="s">
         <v>531</v>
@@ -23139,7 +23139,7 @@
         <v>865</v>
       </c>
       <c r="F193" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="G193" t="s">
         <v>1054</v>
@@ -23187,7 +23187,7 @@
         <v>33</v>
       </c>
       <c r="V193" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W193" t="s">
         <v>74</v>
@@ -23205,7 +23205,7 @@
         <v>78</v>
       </c>
       <c r="AB193" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC193" t="s">
         <v>531</v>
@@ -23231,7 +23231,7 @@
         <v>865</v>
       </c>
       <c r="F194" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="G194" t="s">
         <v>1055</v>
@@ -23279,7 +23279,7 @@
         <v>33</v>
       </c>
       <c r="V194" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W194" t="s">
         <v>74</v>
@@ -23297,7 +23297,7 @@
         <v>78</v>
       </c>
       <c r="AB194" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC194" t="s">
         <v>531</v>
@@ -23323,7 +23323,7 @@
         <v>1060</v>
       </c>
       <c r="F195" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="G195" t="s">
         <v>1061</v>
@@ -23371,7 +23371,7 @@
         <v>33</v>
       </c>
       <c r="V195" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W195" t="s">
         <v>74</v>
@@ -23389,7 +23389,7 @@
         <v>78</v>
       </c>
       <c r="AB195" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC195" t="s">
         <v>531</v>
@@ -23415,7 +23415,7 @@
         <v>1063</v>
       </c>
       <c r="F196" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="G196" t="s">
         <v>1064</v>
@@ -23463,7 +23463,7 @@
         <v>33</v>
       </c>
       <c r="V196" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W196" t="s">
         <v>74</v>
@@ -23481,7 +23481,7 @@
         <v>78</v>
       </c>
       <c r="AB196" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC196" t="s">
         <v>531</v>
@@ -23507,7 +23507,7 @@
         <v>916</v>
       </c>
       <c r="F197" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="G197" t="s">
         <v>1065</v>
@@ -23555,7 +23555,7 @@
         <v>33</v>
       </c>
       <c r="V197" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W197" t="s">
         <v>74</v>
@@ -23573,7 +23573,7 @@
         <v>78</v>
       </c>
       <c r="AB197" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC197" t="s">
         <v>531</v>
@@ -23599,7 +23599,7 @@
         <v>851</v>
       </c>
       <c r="F198" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="G198" t="s">
         <v>1066</v>
@@ -23647,7 +23647,7 @@
         <v>33</v>
       </c>
       <c r="V198" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W198" t="s">
         <v>74</v>
@@ -23665,7 +23665,7 @@
         <v>78</v>
       </c>
       <c r="AB198" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC198" t="s">
         <v>531</v>
@@ -23691,7 +23691,7 @@
         <v>937</v>
       </c>
       <c r="F199" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="G199" t="s">
         <v>1067</v>
@@ -23739,7 +23739,7 @@
         <v>33</v>
       </c>
       <c r="V199" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="W199" t="s">
         <v>74</v>
@@ -23757,7 +23757,7 @@
         <v>78</v>
       </c>
       <c r="AB199" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC199" t="s">
         <v>531</v>
@@ -23783,7 +23783,7 @@
         <v>834</v>
       </c>
       <c r="F200" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="G200" t="s">
         <v>1068</v>
@@ -23831,7 +23831,7 @@
         <v>33</v>
       </c>
       <c r="V200" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="W200" t="s">
         <v>74</v>
@@ -23849,7 +23849,7 @@
         <v>78</v>
       </c>
       <c r="AB200" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC200" t="s">
         <v>531</v>
@@ -23875,7 +23875,7 @@
         <v>916</v>
       </c>
       <c r="F201" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="G201" t="s">
         <v>1069</v>
@@ -23923,7 +23923,7 @@
         <v>33</v>
       </c>
       <c r="V201" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="W201" t="s">
         <v>74</v>
@@ -23941,7 +23941,7 @@
         <v>78</v>
       </c>
       <c r="AB201" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC201" t="s">
         <v>531</v>
@@ -23967,7 +23967,7 @@
         <v>851</v>
       </c>
       <c r="F202" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="G202" t="s">
         <v>1070</v>
@@ -24015,7 +24015,7 @@
         <v>33</v>
       </c>
       <c r="V202" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="W202" t="s">
         <v>74</v>
@@ -24033,7 +24033,7 @@
         <v>78</v>
       </c>
       <c r="AB202" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC202" t="s">
         <v>531</v>
@@ -24059,7 +24059,7 @@
         <v>848</v>
       </c>
       <c r="F203" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="G203" t="s">
         <v>1082</v>
@@ -24107,7 +24107,7 @@
         <v>33</v>
       </c>
       <c r="V203" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="W203" t="s">
         <v>74</v>
@@ -24125,7 +24125,7 @@
         <v>78</v>
       </c>
       <c r="AB203" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC203" t="s">
         <v>531</v>
@@ -24151,7 +24151,7 @@
         <v>900</v>
       </c>
       <c r="F204" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="G204" t="s">
         <v>1083</v>
@@ -24199,7 +24199,7 @@
         <v>33</v>
       </c>
       <c r="V204" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="W204" t="s">
         <v>74</v>
@@ -24217,7 +24217,7 @@
         <v>78</v>
       </c>
       <c r="AB204" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC204" t="s">
         <v>531</v>
@@ -24243,7 +24243,7 @@
         <v>865</v>
       </c>
       <c r="F205" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="G205" t="s">
         <v>1084</v>
@@ -24291,7 +24291,7 @@
         <v>33</v>
       </c>
       <c r="V205" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="W205" t="s">
         <v>74</v>
@@ -24309,7 +24309,7 @@
         <v>78</v>
       </c>
       <c r="AB205" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC205" t="s">
         <v>531</v>
@@ -24335,7 +24335,7 @@
         <v>876</v>
       </c>
       <c r="F206" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="G206" t="s">
         <v>1085</v>
@@ -24383,7 +24383,7 @@
         <v>33</v>
       </c>
       <c r="V206" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="W206" t="s">
         <v>74</v>
@@ -24401,7 +24401,7 @@
         <v>78</v>
       </c>
       <c r="AB206" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC206" t="s">
         <v>531</v>
@@ -24427,7 +24427,7 @@
         <v>834</v>
       </c>
       <c r="F207" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="G207" t="s">
         <v>1086</v>
@@ -24475,7 +24475,7 @@
         <v>33</v>
       </c>
       <c r="V207" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="W207" t="s">
         <v>74</v>
@@ -24493,7 +24493,7 @@
         <v>78</v>
       </c>
       <c r="AB207" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC207" t="s">
         <v>531</v>
@@ -24519,7 +24519,7 @@
         <v>903</v>
       </c>
       <c r="F208" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="G208" t="s">
         <v>1087</v>
@@ -24567,7 +24567,7 @@
         <v>33</v>
       </c>
       <c r="V208" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="W208" t="s">
         <v>74</v>
@@ -24585,7 +24585,7 @@
         <v>78</v>
       </c>
       <c r="AB208" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC208" t="s">
         <v>531</v>
@@ -24611,7 +24611,7 @@
         <v>874</v>
       </c>
       <c r="F209" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="G209" t="s">
         <v>1072</v>
@@ -24659,7 +24659,7 @@
         <v>33</v>
       </c>
       <c r="V209" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="W209" t="s">
         <v>74</v>
@@ -24677,7 +24677,7 @@
         <v>78</v>
       </c>
       <c r="AB209" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC209" t="s">
         <v>531</v>
@@ -24703,7 +24703,7 @@
         <v>851</v>
       </c>
       <c r="F210" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="G210" t="s">
         <v>1088</v>
@@ -24751,7 +24751,7 @@
         <v>33</v>
       </c>
       <c r="V210" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="W210" t="s">
         <v>74</v>
@@ -24769,7 +24769,7 @@
         <v>78</v>
       </c>
       <c r="AB210" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC210" t="s">
         <v>531</v>
@@ -24795,7 +24795,7 @@
         <v>937</v>
       </c>
       <c r="F211" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="G211" t="s">
         <v>1089</v>
@@ -24843,7 +24843,7 @@
         <v>33</v>
       </c>
       <c r="V211" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="W211" t="s">
         <v>74</v>
@@ -24861,7 +24861,7 @@
         <v>78</v>
       </c>
       <c r="AB211" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC211" t="s">
         <v>531</v>
@@ -24887,7 +24887,7 @@
         <v>944</v>
       </c>
       <c r="F212" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="G212" t="s">
         <v>1090</v>
@@ -24935,7 +24935,7 @@
         <v>33</v>
       </c>
       <c r="V212" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="W212" t="s">
         <v>74</v>
@@ -24953,7 +24953,7 @@
         <v>78</v>
       </c>
       <c r="AB212" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC212" t="s">
         <v>531</v>
@@ -24979,7 +24979,7 @@
         <v>859</v>
       </c>
       <c r="F213" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="G213" t="s">
         <v>1091</v>
@@ -25027,7 +25027,7 @@
         <v>33</v>
       </c>
       <c r="V213" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="W213" t="s">
         <v>74</v>
@@ -25045,7 +25045,7 @@
         <v>78</v>
       </c>
       <c r="AB213" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC213" t="s">
         <v>531</v>
@@ -25071,7 +25071,7 @@
         <v>916</v>
       </c>
       <c r="F214" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="G214" t="s">
         <v>1092</v>
@@ -25119,7 +25119,7 @@
         <v>33</v>
       </c>
       <c r="V214" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="W214" t="s">
         <v>74</v>
@@ -25137,7 +25137,7 @@
         <v>78</v>
       </c>
       <c r="AB214" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC214" t="s">
         <v>531</v>
@@ -25163,7 +25163,7 @@
         <v>937</v>
       </c>
       <c r="F215" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="G215" t="s">
         <v>1093</v>
@@ -25211,7 +25211,7 @@
         <v>33</v>
       </c>
       <c r="V215" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="W215" t="s">
         <v>74</v>
@@ -25229,7 +25229,7 @@
         <v>78</v>
       </c>
       <c r="AB215" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC215" t="s">
         <v>531</v>
@@ -25255,7 +25255,7 @@
         <v>916</v>
       </c>
       <c r="F216" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="G216" t="s">
         <v>1094</v>
@@ -25303,7 +25303,7 @@
         <v>33</v>
       </c>
       <c r="V216" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="W216" t="s">
         <v>74</v>
@@ -25321,7 +25321,7 @@
         <v>78</v>
       </c>
       <c r="AB216" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC216" t="s">
         <v>531</v>
@@ -25347,7 +25347,7 @@
         <v>1095</v>
       </c>
       <c r="F217" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="G217" t="s">
         <v>1096</v>
@@ -25395,7 +25395,7 @@
         <v>33</v>
       </c>
       <c r="V217" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="W217" t="s">
         <v>74</v>
@@ -25413,7 +25413,7 @@
         <v>78</v>
       </c>
       <c r="AB217" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC217" t="s">
         <v>531</v>
@@ -25439,7 +25439,7 @@
         <v>1098</v>
       </c>
       <c r="F218" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="G218" t="s">
         <v>1099</v>
@@ -25487,7 +25487,7 @@
         <v>33</v>
       </c>
       <c r="V218" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="W218" t="s">
         <v>74</v>
@@ -25505,7 +25505,7 @@
         <v>78</v>
       </c>
       <c r="AB218" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC218" t="s">
         <v>531</v>
@@ -25531,7 +25531,7 @@
         <v>1101</v>
       </c>
       <c r="F219" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="G219" t="s">
         <v>1102</v>
@@ -25579,7 +25579,7 @@
         <v>33</v>
       </c>
       <c r="V219" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="W219" t="s">
         <v>74</v>
@@ -25597,7 +25597,7 @@
         <v>78</v>
       </c>
       <c r="AB219" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC219" t="s">
         <v>531</v>
@@ -25623,7 +25623,7 @@
         <v>944</v>
       </c>
       <c r="F220" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="G220" t="s">
         <v>1103</v>
@@ -25671,7 +25671,7 @@
         <v>33</v>
       </c>
       <c r="V220" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="W220" t="s">
         <v>74</v>
@@ -25689,7 +25689,7 @@
         <v>78</v>
       </c>
       <c r="AB220" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC220" t="s">
         <v>531</v>
@@ -25715,7 +25715,7 @@
         <v>898</v>
       </c>
       <c r="F221" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="G221" t="s">
         <v>1104</v>
@@ -25763,7 +25763,7 @@
         <v>33</v>
       </c>
       <c r="V221" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="W221" t="s">
         <v>74</v>
@@ -25781,7 +25781,7 @@
         <v>78</v>
       </c>
       <c r="AB221" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC221" t="s">
         <v>531</v>
@@ -25807,7 +25807,7 @@
         <v>874</v>
       </c>
       <c r="F222" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="G222" t="s">
         <v>1105</v>
@@ -25855,7 +25855,7 @@
         <v>33</v>
       </c>
       <c r="V222" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="W222" t="s">
         <v>74</v>
@@ -25873,7 +25873,7 @@
         <v>78</v>
       </c>
       <c r="AB222" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC222" t="s">
         <v>531</v>
@@ -25899,7 +25899,7 @@
         <v>1106</v>
       </c>
       <c r="F223" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="G223" t="s">
         <v>1107</v>
@@ -25947,7 +25947,7 @@
         <v>33</v>
       </c>
       <c r="V223" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="W223" t="s">
         <v>74</v>
@@ -25965,7 +25965,7 @@
         <v>78</v>
       </c>
       <c r="AB223" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC223" t="s">
         <v>531</v>
@@ -25991,7 +25991,7 @@
         <v>1108</v>
       </c>
       <c r="F224" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="G224" t="s">
         <v>1109</v>
@@ -26039,7 +26039,7 @@
         <v>33</v>
       </c>
       <c r="V224" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="W224" t="s">
         <v>74</v>
@@ -26057,7 +26057,7 @@
         <v>78</v>
       </c>
       <c r="AB224" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC224" t="s">
         <v>531</v>
@@ -26083,7 +26083,7 @@
         <v>919</v>
       </c>
       <c r="F225" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="G225" t="s">
         <v>1110</v>
@@ -26131,7 +26131,7 @@
         <v>33</v>
       </c>
       <c r="V225" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="W225" t="s">
         <v>74</v>
@@ -26149,7 +26149,7 @@
         <v>78</v>
       </c>
       <c r="AB225" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC225" t="s">
         <v>531</v>
@@ -26175,7 +26175,7 @@
         <v>876</v>
       </c>
       <c r="F226" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="G226" t="s">
         <v>1111</v>
@@ -26223,7 +26223,7 @@
         <v>33</v>
       </c>
       <c r="V226" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="W226" t="s">
         <v>74</v>
@@ -26241,7 +26241,7 @@
         <v>78</v>
       </c>
       <c r="AB226" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC226" t="s">
         <v>531</v>
@@ -26267,7 +26267,7 @@
         <v>874</v>
       </c>
       <c r="F227" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="G227" t="s">
         <v>1105</v>
@@ -26315,7 +26315,7 @@
         <v>33</v>
       </c>
       <c r="V227" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="W227" t="s">
         <v>74</v>
@@ -26333,7 +26333,7 @@
         <v>78</v>
       </c>
       <c r="AB227" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC227" t="s">
         <v>531</v>
@@ -26359,7 +26359,7 @@
         <v>916</v>
       </c>
       <c r="F228" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="G228" t="s">
         <v>1112</v>
@@ -26407,7 +26407,7 @@
         <v>33</v>
       </c>
       <c r="V228" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="W228" t="s">
         <v>74</v>
@@ -26425,7 +26425,7 @@
         <v>78</v>
       </c>
       <c r="AB228" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC228" t="s">
         <v>531</v>
@@ -26451,7 +26451,7 @@
         <v>987</v>
       </c>
       <c r="F229" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="G229" t="s">
         <v>1113</v>
@@ -26499,7 +26499,7 @@
         <v>33</v>
       </c>
       <c r="V229" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="W229" t="s">
         <v>74</v>
@@ -26517,7 +26517,7 @@
         <v>78</v>
       </c>
       <c r="AB229" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC229" t="s">
         <v>531</v>
@@ -26543,7 +26543,7 @@
         <v>1095</v>
       </c>
       <c r="F230" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="G230" t="s">
         <v>1114</v>
@@ -26591,7 +26591,7 @@
         <v>33</v>
       </c>
       <c r="V230" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="W230" t="s">
         <v>74</v>
@@ -26609,7 +26609,7 @@
         <v>78</v>
       </c>
       <c r="AB230" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC230" t="s">
         <v>531</v>
@@ -26635,7 +26635,7 @@
         <v>942</v>
       </c>
       <c r="F231" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="G231" t="s">
         <v>1116</v>
@@ -26683,7 +26683,7 @@
         <v>33</v>
       </c>
       <c r="V231" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="W231" t="s">
         <v>74</v>
@@ -26701,7 +26701,7 @@
         <v>78</v>
       </c>
       <c r="AB231" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC231" t="s">
         <v>531</v>
@@ -26727,7 +26727,7 @@
         <v>848</v>
       </c>
       <c r="F232" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="G232" t="s">
         <v>1117</v>
@@ -26775,7 +26775,7 @@
         <v>33</v>
       </c>
       <c r="V232" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="W232" t="s">
         <v>74</v>
@@ -26793,7 +26793,7 @@
         <v>78</v>
       </c>
       <c r="AB232" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC232" t="s">
         <v>531</v>
@@ -26819,7 +26819,7 @@
         <v>868</v>
       </c>
       <c r="F233" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="G233" t="s">
         <v>1119</v>
@@ -26867,7 +26867,7 @@
         <v>33</v>
       </c>
       <c r="V233" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="W233" t="s">
         <v>74</v>
@@ -26885,7 +26885,7 @@
         <v>78</v>
       </c>
       <c r="AB233" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC233" t="s">
         <v>531</v>
@@ -26911,10 +26911,10 @@
         <v>903</v>
       </c>
       <c r="F234" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="G234" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="H234" t="s">
         <v>49</v>
@@ -26959,7 +26959,7 @@
         <v>33</v>
       </c>
       <c r="V234" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W234" t="s">
         <v>74</v>
@@ -26977,7 +26977,7 @@
         <v>78</v>
       </c>
       <c r="AB234" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC234" t="s">
         <v>531</v>
@@ -27003,10 +27003,10 @@
         <v>851</v>
       </c>
       <c r="F235" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="G235" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="H235" t="s">
         <v>49</v>
@@ -27051,7 +27051,7 @@
         <v>33</v>
       </c>
       <c r="V235" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="W235" t="s">
         <v>74</v>
@@ -27069,7 +27069,7 @@
         <v>78</v>
       </c>
       <c r="AB235" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC235" t="s">
         <v>531</v>
@@ -27095,10 +27095,10 @@
         <v>1028</v>
       </c>
       <c r="F236" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="G236" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="H236" t="s">
         <v>49</v>
@@ -27143,7 +27143,7 @@
         <v>33</v>
       </c>
       <c r="V236" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W236" t="s">
         <v>74</v>
@@ -27161,7 +27161,7 @@
         <v>78</v>
       </c>
       <c r="AB236" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC236" t="s">
         <v>531</v>
@@ -27187,7 +27187,7 @@
         <v>937</v>
       </c>
       <c r="F237" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="G237" t="s">
         <v>1035</v>
@@ -27235,7 +27235,7 @@
         <v>33</v>
       </c>
       <c r="V237" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W237" t="s">
         <v>74</v>
@@ -27253,7 +27253,7 @@
         <v>78</v>
       </c>
       <c r="AB237" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC237" t="s">
         <v>531</v>
@@ -27276,13 +27276,13 @@
         <v>970</v>
       </c>
       <c r="E238" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F238" t="s">
+        <v>1415</v>
+      </c>
+      <c r="G238" t="s">
         <v>1136</v>
-      </c>
-      <c r="F238" t="s">
-        <v>1416</v>
-      </c>
-      <c r="G238" t="s">
-        <v>1137</v>
       </c>
       <c r="H238" t="s">
         <v>49</v>
@@ -27327,7 +27327,7 @@
         <v>33</v>
       </c>
       <c r="V238" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W238" t="s">
         <v>74</v>
@@ -27345,7 +27345,7 @@
         <v>78</v>
       </c>
       <c r="AB238" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC238" t="s">
         <v>531</v>
@@ -27371,10 +27371,10 @@
         <v>1015</v>
       </c>
       <c r="F239" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="G239" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="H239" t="s">
         <v>49</v>
@@ -27419,7 +27419,7 @@
         <v>33</v>
       </c>
       <c r="V239" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W239" t="s">
         <v>74</v>
@@ -27437,7 +27437,7 @@
         <v>78</v>
       </c>
       <c r="AB239" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC239" t="s">
         <v>531</v>
@@ -27463,10 +27463,10 @@
         <v>841</v>
       </c>
       <c r="F240" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="G240" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="H240" t="s">
         <v>49</v>
@@ -27511,7 +27511,7 @@
         <v>33</v>
       </c>
       <c r="V240" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W240" t="s">
         <v>74</v>
@@ -27529,7 +27529,7 @@
         <v>78</v>
       </c>
       <c r="AB240" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC240" t="s">
         <v>531</v>
@@ -27555,10 +27555,10 @@
         <v>900</v>
       </c>
       <c r="F241" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="G241" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H241" t="s">
         <v>49</v>
@@ -27603,7 +27603,7 @@
         <v>33</v>
       </c>
       <c r="V241" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W241" t="s">
         <v>74</v>
@@ -27621,7 +27621,7 @@
         <v>78</v>
       </c>
       <c r="AB241" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC241" t="s">
         <v>531</v>
@@ -27647,7 +27647,7 @@
         <v>903</v>
       </c>
       <c r="F242" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="G242" t="s">
         <v>1087</v>
@@ -27695,7 +27695,7 @@
         <v>33</v>
       </c>
       <c r="V242" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="W242" t="s">
         <v>74</v>
@@ -27713,7 +27713,7 @@
         <v>78</v>
       </c>
       <c r="AB242" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC242" t="s">
         <v>531</v>
@@ -27739,10 +27739,10 @@
         <v>871</v>
       </c>
       <c r="F243" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="G243" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="H243" t="s">
         <v>49</v>
@@ -27787,7 +27787,7 @@
         <v>33</v>
       </c>
       <c r="V243" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W243" t="s">
         <v>74</v>
@@ -27805,7 +27805,7 @@
         <v>78</v>
       </c>
       <c r="AB243" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC243" t="s">
         <v>531</v>
@@ -27831,10 +27831,10 @@
         <v>871</v>
       </c>
       <c r="F244" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="G244" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="H244" t="s">
         <v>49</v>
@@ -27879,7 +27879,7 @@
         <v>33</v>
       </c>
       <c r="V244" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W244" t="s">
         <v>74</v>
@@ -27897,7 +27897,7 @@
         <v>78</v>
       </c>
       <c r="AB244" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC244" t="s">
         <v>531</v>
@@ -27923,10 +27923,10 @@
         <v>876</v>
       </c>
       <c r="F245" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="G245" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="H245" t="s">
         <v>49</v>
@@ -27989,7 +27989,7 @@
         <v>78</v>
       </c>
       <c r="AB245" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC245" t="s">
         <v>531</v>
@@ -28015,7 +28015,7 @@
         <v>868</v>
       </c>
       <c r="F246" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="G246" t="s">
         <v>1079</v>
@@ -28063,7 +28063,7 @@
         <v>33</v>
       </c>
       <c r="V246" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="W246" t="s">
         <v>74</v>
@@ -28081,7 +28081,7 @@
         <v>78</v>
       </c>
       <c r="AB246" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC246" t="s">
         <v>531</v>
@@ -28104,13 +28104,13 @@
         <v>844</v>
       </c>
       <c r="E247" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F247" t="s">
+        <v>1422</v>
+      </c>
+      <c r="G247" t="s">
         <v>1143</v>
-      </c>
-      <c r="F247" t="s">
-        <v>1423</v>
-      </c>
-      <c r="G247" t="s">
-        <v>1144</v>
       </c>
       <c r="H247" t="s">
         <v>50</v>
@@ -28155,7 +28155,7 @@
         <v>33</v>
       </c>
       <c r="V247" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="W247" t="s">
         <v>74</v>
@@ -28173,7 +28173,7 @@
         <v>78</v>
       </c>
       <c r="AB247" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC247" t="s">
         <v>531</v>
@@ -28199,7 +28199,7 @@
         <v>865</v>
       </c>
       <c r="F248" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="G248" t="s">
         <v>995</v>
@@ -28247,7 +28247,7 @@
         <v>33</v>
       </c>
       <c r="V248" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W248" t="s">
         <v>74</v>
@@ -28265,7 +28265,7 @@
         <v>78</v>
       </c>
       <c r="AB248" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC248" t="s">
         <v>531</v>
@@ -28291,7 +28291,7 @@
         <v>868</v>
       </c>
       <c r="F249" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="G249" t="s">
         <v>911</v>
@@ -28357,7 +28357,7 @@
         <v>78</v>
       </c>
       <c r="AB249" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC249" t="s">
         <v>531</v>
@@ -28383,10 +28383,10 @@
         <v>1028</v>
       </c>
       <c r="F250" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="G250" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="H250" t="s">
         <v>52</v>
@@ -28431,7 +28431,7 @@
         <v>33</v>
       </c>
       <c r="V250" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W250" t="s">
         <v>74</v>
@@ -28449,7 +28449,7 @@
         <v>78</v>
       </c>
       <c r="AB250" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC250" t="s">
         <v>531</v>
@@ -28475,10 +28475,10 @@
         <v>884</v>
       </c>
       <c r="F251" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="G251" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="H251" t="s">
         <v>52</v>
@@ -28541,7 +28541,7 @@
         <v>78</v>
       </c>
       <c r="AB251" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC251" t="s">
         <v>531</v>
@@ -28567,7 +28567,7 @@
         <v>933</v>
       </c>
       <c r="F252" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="G252" t="s">
         <v>1024</v>
@@ -28615,7 +28615,7 @@
         <v>33</v>
       </c>
       <c r="V252" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W252" t="s">
         <v>74</v>
@@ -28633,7 +28633,7 @@
         <v>78</v>
       </c>
       <c r="AB252" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC252" t="s">
         <v>531</v>
@@ -28659,7 +28659,7 @@
         <v>667</v>
       </c>
       <c r="F253" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="G253" t="s">
         <v>110</v>
@@ -28843,7 +28843,7 @@
         <v>651</v>
       </c>
       <c r="F255" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="G255" t="s">
         <v>71</v>
@@ -28909,7 +28909,7 @@
         <v>78</v>
       </c>
       <c r="AB255" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="AC255" t="s">
         <v>531</v>
@@ -28935,7 +28935,7 @@
         <v>654</v>
       </c>
       <c r="F256" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="G256" t="s">
         <v>528</v>
@@ -28983,7 +28983,7 @@
         <v>33</v>
       </c>
       <c r="V256" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="W256" t="s">
         <v>74</v>
@@ -29027,7 +29027,7 @@
         <v>668</v>
       </c>
       <c r="F257" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="G257" t="s">
         <v>119</v>
@@ -29119,7 +29119,7 @@
         <v>668</v>
       </c>
       <c r="F258" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="G258" t="s">
         <v>129</v>
@@ -29211,7 +29211,7 @@
         <v>670</v>
       </c>
       <c r="F259" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="G259" t="s">
         <v>671</v>
@@ -29303,7 +29303,7 @@
         <v>668</v>
       </c>
       <c r="F260" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="G260" t="s">
         <v>131</v>
@@ -29395,7 +29395,7 @@
         <v>668</v>
       </c>
       <c r="F261" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="G261" t="s">
         <v>134</v>
@@ -29487,7 +29487,7 @@
         <v>674</v>
       </c>
       <c r="F262" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="G262" t="s">
         <v>140</v>
@@ -29579,7 +29579,7 @@
         <v>675</v>
       </c>
       <c r="F263" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="G263" t="s">
         <v>676</v>
@@ -29671,7 +29671,7 @@
         <v>675</v>
       </c>
       <c r="F264" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="G264" t="s">
         <v>677</v>
@@ -29763,7 +29763,7 @@
         <v>668</v>
       </c>
       <c r="F265" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="G265" t="s">
         <v>153</v>
@@ -29855,7 +29855,7 @@
         <v>678</v>
       </c>
       <c r="F266" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="G266" t="s">
         <v>679</v>
@@ -29947,7 +29947,7 @@
         <v>668</v>
       </c>
       <c r="F267" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="G267" t="s">
         <v>155</v>
@@ -30039,7 +30039,7 @@
         <v>668</v>
       </c>
       <c r="F268" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="G268" t="s">
         <v>156</v>
@@ -30131,7 +30131,7 @@
         <v>678</v>
       </c>
       <c r="F269" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="G269" t="s">
         <v>157</v>
@@ -30223,7 +30223,7 @@
         <v>680</v>
       </c>
       <c r="F270" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="G270" t="s">
         <v>528</v>
@@ -30315,7 +30315,7 @@
         <v>674</v>
       </c>
       <c r="F271" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="G271" t="s">
         <v>160</v>
@@ -30407,7 +30407,7 @@
         <v>668</v>
       </c>
       <c r="F272" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="G272" t="s">
         <v>162</v>
@@ -30499,7 +30499,7 @@
         <v>668</v>
       </c>
       <c r="F273" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="G273" t="s">
         <v>681</v>
@@ -30591,7 +30591,7 @@
         <v>668</v>
       </c>
       <c r="F274" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="G274" t="s">
         <v>169</v>
@@ -30683,7 +30683,7 @@
         <v>680</v>
       </c>
       <c r="F275" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="G275" t="s">
         <v>171</v>
@@ -30775,7 +30775,7 @@
         <v>668</v>
       </c>
       <c r="F276" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="G276" t="s">
         <v>172</v>
@@ -30867,7 +30867,7 @@
         <v>668</v>
       </c>
       <c r="F277" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="G277" t="s">
         <v>173</v>
@@ -30959,7 +30959,7 @@
         <v>682</v>
       </c>
       <c r="F278" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="G278" t="s">
         <v>174</v>
@@ -31051,7 +31051,7 @@
         <v>680</v>
       </c>
       <c r="F279" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="G279" t="s">
         <v>180</v>
@@ -31143,7 +31143,7 @@
         <v>668</v>
       </c>
       <c r="F280" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="G280" t="s">
         <v>683</v>
@@ -31235,7 +31235,7 @@
         <v>684</v>
       </c>
       <c r="F281" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="G281" t="s">
         <v>181</v>
@@ -31327,7 +31327,7 @@
         <v>668</v>
       </c>
       <c r="F282" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="G282" t="s">
         <v>685</v>
@@ -31419,7 +31419,7 @@
         <v>668</v>
       </c>
       <c r="F283" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="G283" t="s">
         <v>182</v>
@@ -31511,7 +31511,7 @@
         <v>668</v>
       </c>
       <c r="F284" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="G284" t="s">
         <v>183</v>
@@ -31603,7 +31603,7 @@
         <v>668</v>
       </c>
       <c r="F285" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="G285" t="s">
         <v>184</v>
@@ -31695,7 +31695,7 @@
         <v>686</v>
       </c>
       <c r="F286" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="G286" t="s">
         <v>185</v>
@@ -31787,7 +31787,7 @@
         <v>682</v>
       </c>
       <c r="F287" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="G287" t="s">
         <v>186</v>
@@ -31879,7 +31879,7 @@
         <v>687</v>
       </c>
       <c r="F288" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="G288" t="s">
         <v>188</v>
@@ -31971,7 +31971,7 @@
         <v>674</v>
       </c>
       <c r="F289" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="G289" t="s">
         <v>190</v>
@@ -32063,7 +32063,7 @@
         <v>668</v>
       </c>
       <c r="F290" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G290" t="s">
         <v>688</v>
@@ -32155,7 +32155,7 @@
         <v>689</v>
       </c>
       <c r="F291" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="G291" t="s">
         <v>199</v>
@@ -32247,7 +32247,7 @@
         <v>690</v>
       </c>
       <c r="F292" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="G292" t="s">
         <v>203</v>
@@ -32339,7 +32339,7 @@
         <v>691</v>
       </c>
       <c r="F293" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="G293" t="s">
         <v>208</v>
@@ -32431,7 +32431,7 @@
         <v>692</v>
       </c>
       <c r="F294" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="G294" t="s">
         <v>209</v>
@@ -32523,7 +32523,7 @@
         <v>692</v>
       </c>
       <c r="F295" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="G295" t="s">
         <v>211</v>
@@ -32615,7 +32615,7 @@
         <v>692</v>
       </c>
       <c r="F296" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="G296" t="s">
         <v>212</v>
@@ -32707,7 +32707,7 @@
         <v>692</v>
       </c>
       <c r="F297" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="G297" t="s">
         <v>213</v>
@@ -32799,7 +32799,7 @@
         <v>693</v>
       </c>
       <c r="F298" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="G298" t="s">
         <v>215</v>
@@ -32891,7 +32891,7 @@
         <v>693</v>
       </c>
       <c r="F299" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="G299" t="s">
         <v>217</v>
@@ -32968,7 +32968,7 @@
     </row>
     <row r="300" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B300">
         <v>4752</v>
@@ -32983,7 +32983,7 @@
         <v>823</v>
       </c>
       <c r="F300" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="G300" t="s">
         <v>528</v>
@@ -33031,7 +33031,7 @@
         <v>33</v>
       </c>
       <c r="V300" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="W300" t="s">
         <v>74</v>
@@ -33049,18 +33049,18 @@
         <v>78</v>
       </c>
       <c r="AB300" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC300" t="s">
         <v>531</v>
       </c>
       <c r="AD300" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="301" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B301">
         <v>5132</v>
@@ -33075,7 +33075,7 @@
         <v>827</v>
       </c>
       <c r="F301" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="G301" t="s">
         <v>528</v>
@@ -33123,7 +33123,7 @@
         <v>33</v>
       </c>
       <c r="V301" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="W301" t="s">
         <v>74</v>
@@ -33141,18 +33141,18 @@
         <v>78</v>
       </c>
       <c r="AB301" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC301" t="s">
         <v>531</v>
       </c>
       <c r="AD301" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="302" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B302">
         <v>786486</v>
@@ -33167,7 +33167,7 @@
         <v>829</v>
       </c>
       <c r="F302" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="G302" t="s">
         <v>528</v>
@@ -33215,7 +33215,7 @@
         <v>33</v>
       </c>
       <c r="V302" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="W302" t="s">
         <v>74</v>
@@ -33233,18 +33233,18 @@
         <v>78</v>
       </c>
       <c r="AB302" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC302" t="s">
         <v>531</v>
       </c>
       <c r="AD302" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="303" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B303">
         <v>6596</v>
@@ -33259,7 +33259,7 @@
         <v>830</v>
       </c>
       <c r="F303" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="G303" t="s">
         <v>528</v>
@@ -33307,7 +33307,7 @@
         <v>33</v>
       </c>
       <c r="V303" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="W303" t="s">
         <v>74</v>
@@ -33325,18 +33325,18 @@
         <v>78</v>
       </c>
       <c r="AB303" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC303" t="s">
         <v>531</v>
       </c>
       <c r="AD303" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="304" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B304">
         <v>6611</v>
@@ -33351,7 +33351,7 @@
         <v>831</v>
       </c>
       <c r="F304" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="G304" t="s">
         <v>528</v>
@@ -33399,7 +33399,7 @@
         <v>33</v>
       </c>
       <c r="V304" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="W304" t="s">
         <v>74</v>
@@ -33417,18 +33417,18 @@
         <v>78</v>
       </c>
       <c r="AB304" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC304" t="s">
         <v>531</v>
       </c>
       <c r="AD304" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="305" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B305">
         <v>6282</v>
@@ -33437,13 +33437,13 @@
         <v>821</v>
       </c>
       <c r="D305" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E305" t="s">
         <v>1152</v>
       </c>
-      <c r="E305" t="s">
-        <v>1153</v>
-      </c>
       <c r="F305" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="G305" t="s">
         <v>528</v>
@@ -33491,7 +33491,7 @@
         <v>33</v>
       </c>
       <c r="V305" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W305" t="s">
         <v>74</v>
@@ -33509,18 +33509,18 @@
         <v>78</v>
       </c>
       <c r="AB305" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC305" t="s">
         <v>531</v>
       </c>
       <c r="AD305" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="306" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B306">
         <v>6510</v>
@@ -33532,10 +33532,10 @@
         <v>828</v>
       </c>
       <c r="E306" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="F306" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="G306" t="s">
         <v>528</v>
@@ -33583,7 +33583,7 @@
         <v>33</v>
       </c>
       <c r="V306" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W306" t="s">
         <v>74</v>
@@ -33601,18 +33601,18 @@
         <v>78</v>
       </c>
       <c r="AB306" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC306" t="s">
         <v>531</v>
       </c>
       <c r="AD306" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="307" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B307">
         <v>6462</v>
@@ -33624,10 +33624,10 @@
         <v>828</v>
       </c>
       <c r="E307" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="F307" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="G307" t="s">
         <v>528</v>
@@ -33675,7 +33675,7 @@
         <v>33</v>
       </c>
       <c r="V307" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W307" t="s">
         <v>74</v>
@@ -33693,18 +33693,18 @@
         <v>78</v>
       </c>
       <c r="AB307" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC307" t="s">
         <v>531</v>
       </c>
       <c r="AD307" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="308" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B308">
         <v>6621</v>
@@ -33719,7 +33719,7 @@
         <v>831</v>
       </c>
       <c r="F308" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="G308" t="s">
         <v>528</v>
@@ -33767,7 +33767,7 @@
         <v>33</v>
       </c>
       <c r="V308" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W308" t="s">
         <v>74</v>
@@ -33785,18 +33785,18 @@
         <v>78</v>
       </c>
       <c r="AB308" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC308" t="s">
         <v>531</v>
       </c>
       <c r="AD308" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="309" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B309">
         <v>4761</v>
@@ -33811,7 +33811,7 @@
         <v>823</v>
       </c>
       <c r="F309" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="G309" t="s">
         <v>528</v>
@@ -33859,7 +33859,7 @@
         <v>33</v>
       </c>
       <c r="V309" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W309" t="s">
         <v>74</v>
@@ -33877,18 +33877,18 @@
         <v>78</v>
       </c>
       <c r="AB309" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC309" t="s">
         <v>531</v>
       </c>
       <c r="AD309" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="310" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B310">
         <v>5786</v>
@@ -33897,13 +33897,13 @@
         <v>821</v>
       </c>
       <c r="D310" t="s">
+        <v>1160</v>
+      </c>
+      <c r="E310" t="s">
         <v>1161</v>
       </c>
-      <c r="E310" t="s">
-        <v>1162</v>
-      </c>
       <c r="F310" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="G310" t="s">
         <v>528</v>
@@ -33951,7 +33951,7 @@
         <v>33</v>
       </c>
       <c r="V310" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W310" t="s">
         <v>74</v>
@@ -33969,18 +33969,18 @@
         <v>78</v>
       </c>
       <c r="AB310" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC310" t="s">
         <v>531</v>
       </c>
       <c r="AD310" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="311" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B311">
         <v>6833</v>
@@ -33989,13 +33989,13 @@
         <v>821</v>
       </c>
       <c r="D311" t="s">
+        <v>1163</v>
+      </c>
+      <c r="E311" t="s">
         <v>1164</v>
       </c>
-      <c r="E311" t="s">
-        <v>1165</v>
-      </c>
       <c r="F311" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="G311" t="s">
         <v>528</v>
@@ -34043,7 +34043,7 @@
         <v>33</v>
       </c>
       <c r="V311" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W311" t="s">
         <v>74</v>
@@ -34061,18 +34061,18 @@
         <v>78</v>
       </c>
       <c r="AB311" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC311" t="s">
         <v>531</v>
       </c>
       <c r="AD311" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="312" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B312">
         <v>434530</v>
@@ -34081,13 +34081,13 @@
         <v>821</v>
       </c>
       <c r="D312" t="s">
+        <v>1163</v>
+      </c>
+      <c r="E312" t="s">
         <v>1164</v>
       </c>
-      <c r="E312" t="s">
-        <v>1165</v>
-      </c>
       <c r="F312" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="G312" t="s">
         <v>528</v>
@@ -34135,7 +34135,7 @@
         <v>33</v>
       </c>
       <c r="V312" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W312" t="s">
         <v>74</v>
@@ -34153,18 +34153,18 @@
         <v>78</v>
       </c>
       <c r="AB312" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC312" t="s">
         <v>531</v>
       </c>
       <c r="AD312" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="313" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B313">
         <v>434531</v>
@@ -34173,13 +34173,13 @@
         <v>821</v>
       </c>
       <c r="D313" t="s">
+        <v>1163</v>
+      </c>
+      <c r="E313" t="s">
         <v>1164</v>
       </c>
-      <c r="E313" t="s">
-        <v>1165</v>
-      </c>
       <c r="F313" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="G313" t="s">
         <v>528</v>
@@ -34227,7 +34227,7 @@
         <v>33</v>
       </c>
       <c r="V313" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W313" t="s">
         <v>74</v>
@@ -34245,18 +34245,18 @@
         <v>78</v>
       </c>
       <c r="AB313" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC313" t="s">
         <v>531</v>
       </c>
       <c r="AD313" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="314" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B314">
         <v>3885</v>
@@ -34265,13 +34265,13 @@
         <v>821</v>
       </c>
       <c r="D314" t="s">
+        <v>1166</v>
+      </c>
+      <c r="E314" t="s">
         <v>1167</v>
       </c>
-      <c r="E314" t="s">
-        <v>1168</v>
-      </c>
       <c r="F314" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="G314" t="s">
         <v>528</v>
@@ -34337,18 +34337,18 @@
         <v>78</v>
       </c>
       <c r="AB314" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC314" t="s">
         <v>531</v>
       </c>
       <c r="AD314" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="315" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B315">
         <v>435705</v>
@@ -34360,10 +34360,10 @@
         <v>822</v>
       </c>
       <c r="E315" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="F315" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="G315" t="s">
         <v>528</v>
@@ -34411,7 +34411,7 @@
         <v>33</v>
       </c>
       <c r="V315" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W315" t="s">
         <v>74</v>
@@ -34429,18 +34429,18 @@
         <v>78</v>
       </c>
       <c r="AB315" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC315" t="s">
         <v>531</v>
       </c>
       <c r="AD315" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="316" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B316">
         <v>434079</v>
@@ -34452,10 +34452,10 @@
         <v>822</v>
       </c>
       <c r="E316" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="F316" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="G316" t="s">
         <v>528</v>
@@ -34503,7 +34503,7 @@
         <v>33</v>
       </c>
       <c r="V316" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W316" t="s">
         <v>74</v>
@@ -34521,18 +34521,18 @@
         <v>78</v>
       </c>
       <c r="AB316" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC316" t="s">
         <v>531</v>
       </c>
       <c r="AD316" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="317" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B317">
         <v>434203</v>
@@ -34544,10 +34544,10 @@
         <v>822</v>
       </c>
       <c r="E317" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F317" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="G317" t="s">
         <v>528</v>
@@ -34595,7 +34595,7 @@
         <v>33</v>
       </c>
       <c r="V317" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W317" t="s">
         <v>74</v>
@@ -34613,18 +34613,18 @@
         <v>78</v>
       </c>
       <c r="AB317" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC317" t="s">
         <v>531</v>
       </c>
       <c r="AD317" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="318" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B318">
         <v>6653</v>
@@ -34633,13 +34633,13 @@
         <v>821</v>
       </c>
       <c r="D318" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E318" t="s">
         <v>1176</v>
       </c>
-      <c r="E318" t="s">
-        <v>1177</v>
-      </c>
       <c r="F318" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="G318" t="s">
         <v>528</v>
@@ -34687,7 +34687,7 @@
         <v>33</v>
       </c>
       <c r="V318" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W318" t="s">
         <v>74</v>
@@ -34705,18 +34705,18 @@
         <v>78</v>
       </c>
       <c r="AB318" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC318" t="s">
         <v>531</v>
       </c>
       <c r="AD318" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="319" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B319">
         <v>6124</v>
@@ -34725,13 +34725,13 @@
         <v>821</v>
       </c>
       <c r="D319" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="E319" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="F319" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="G319" t="s">
         <v>528</v>
@@ -34779,7 +34779,7 @@
         <v>33</v>
       </c>
       <c r="V319" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="W319" t="s">
         <v>74</v>
@@ -34797,13 +34797,13 @@
         <v>78</v>
       </c>
       <c r="AB319" t="s">
-        <v>1124</v>
+        <v>1672</v>
       </c>
       <c r="AC319" t="s">
         <v>531</v>
       </c>
       <c r="AD319" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="320" spans="1:30" x14ac:dyDescent="0.25">
@@ -34823,7 +34823,7 @@
         <v>694</v>
       </c>
       <c r="F320" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="G320" t="s">
         <v>695</v>
@@ -34915,7 +34915,7 @@
         <v>696</v>
       </c>
       <c r="F321" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="G321" t="s">
         <v>222</v>
@@ -35007,7 +35007,7 @@
         <v>697</v>
       </c>
       <c r="F322" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="G322" t="s">
         <v>224</v>
@@ -35099,7 +35099,7 @@
         <v>698</v>
       </c>
       <c r="F323" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="G323" t="s">
         <v>699</v>
@@ -35191,7 +35191,7 @@
         <v>696</v>
       </c>
       <c r="F324" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="G324" t="s">
         <v>700</v>
@@ -35283,7 +35283,7 @@
         <v>694</v>
       </c>
       <c r="F325" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="G325" t="s">
         <v>701</v>
@@ -35375,7 +35375,7 @@
         <v>698</v>
       </c>
       <c r="F326" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="G326" t="s">
         <v>702</v>
@@ -35467,7 +35467,7 @@
         <v>703</v>
       </c>
       <c r="F327" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="G327" t="s">
         <v>704</v>
@@ -35559,7 +35559,7 @@
         <v>698</v>
       </c>
       <c r="F328" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="G328" t="s">
         <v>705</v>
@@ -35651,7 +35651,7 @@
         <v>697</v>
       </c>
       <c r="F329" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="G329" t="s">
         <v>235</v>
@@ -35743,7 +35743,7 @@
         <v>703</v>
       </c>
       <c r="F330" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="G330" t="s">
         <v>706</v>
@@ -35835,7 +35835,7 @@
         <v>707</v>
       </c>
       <c r="F331" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="G331" t="s">
         <v>241</v>
@@ -35927,7 +35927,7 @@
         <v>708</v>
       </c>
       <c r="F332" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="G332" t="s">
         <v>251</v>
@@ -36019,7 +36019,7 @@
         <v>709</v>
       </c>
       <c r="F333" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="G333" t="s">
         <v>258</v>
@@ -36111,7 +36111,7 @@
         <v>710</v>
       </c>
       <c r="F334" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="G334" t="s">
         <v>261</v>
@@ -36203,7 +36203,7 @@
         <v>711</v>
       </c>
       <c r="F335" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="G335" t="s">
         <v>269</v>
@@ -36295,7 +36295,7 @@
         <v>712</v>
       </c>
       <c r="F336" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="G336" t="s">
         <v>713</v>
@@ -36387,7 +36387,7 @@
         <v>714</v>
       </c>
       <c r="F337" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="G337" t="s">
         <v>279</v>
@@ -36479,7 +36479,7 @@
         <v>715</v>
       </c>
       <c r="F338" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="G338" t="s">
         <v>285</v>
@@ -36571,7 +36571,7 @@
         <v>716</v>
       </c>
       <c r="F339" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="G339" t="s">
         <v>291</v>
@@ -36663,7 +36663,7 @@
         <v>708</v>
       </c>
       <c r="F340" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="G340" t="s">
         <v>293</v>
@@ -36755,7 +36755,7 @@
         <v>717</v>
       </c>
       <c r="F341" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="G341" t="s">
         <v>294</v>
@@ -36847,7 +36847,7 @@
         <v>718</v>
       </c>
       <c r="F342" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="G342" t="s">
         <v>295</v>
@@ -36939,7 +36939,7 @@
         <v>719</v>
       </c>
       <c r="F343" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="G343" t="s">
         <v>296</v>
@@ -37031,7 +37031,7 @@
         <v>720</v>
       </c>
       <c r="F344" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="G344" t="s">
         <v>298</v>
@@ -37123,7 +37123,7 @@
         <v>721</v>
       </c>
       <c r="F345" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="G345" t="s">
         <v>300</v>
@@ -37215,7 +37215,7 @@
         <v>721</v>
       </c>
       <c r="F346" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="G346" t="s">
         <v>302</v>
@@ -37307,7 +37307,7 @@
         <v>722</v>
       </c>
       <c r="F347" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="G347" t="s">
         <v>304</v>
@@ -37399,7 +37399,7 @@
         <v>723</v>
       </c>
       <c r="F348" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="G348" t="s">
         <v>309</v>
@@ -37491,7 +37491,7 @@
         <v>711</v>
       </c>
       <c r="F349" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="G349" t="s">
         <v>724</v>
@@ -37583,7 +37583,7 @@
         <v>711</v>
       </c>
       <c r="F350" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="G350" t="s">
         <v>315</v>
@@ -37675,7 +37675,7 @@
         <v>711</v>
       </c>
       <c r="F351" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="G351" t="s">
         <v>611</v>
@@ -37767,7 +37767,7 @@
         <v>711</v>
       </c>
       <c r="F352" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="G352" t="s">
         <v>322</v>
@@ -37859,7 +37859,7 @@
         <v>711</v>
       </c>
       <c r="F353" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="G353" t="s">
         <v>323</v>
@@ -37951,7 +37951,7 @@
         <v>718</v>
       </c>
       <c r="F354" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="G354" t="s">
         <v>324</v>
@@ -38043,7 +38043,7 @@
         <v>725</v>
       </c>
       <c r="F355" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="G355" t="s">
         <v>726</v>
@@ -38135,7 +38135,7 @@
         <v>719</v>
       </c>
       <c r="F356" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="G356" t="s">
         <v>325</v>
@@ -38227,7 +38227,7 @@
         <v>719</v>
       </c>
       <c r="F357" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="G357" t="s">
         <v>326</v>
@@ -38319,7 +38319,7 @@
         <v>719</v>
       </c>
       <c r="F358" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="G358" t="s">
         <v>327</v>
@@ -38411,7 +38411,7 @@
         <v>719</v>
       </c>
       <c r="F359" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="G359" t="s">
         <v>328</v>
@@ -38503,7 +38503,7 @@
         <v>727</v>
       </c>
       <c r="F360" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="G360" t="s">
         <v>330</v>
@@ -38595,7 +38595,7 @@
         <v>728</v>
       </c>
       <c r="F361" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="G361" t="s">
         <v>331</v>
@@ -38687,7 +38687,7 @@
         <v>729</v>
       </c>
       <c r="F362" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="G362" t="s">
         <v>333</v>
@@ -38779,7 +38779,7 @@
         <v>719</v>
       </c>
       <c r="F363" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="G363" t="s">
         <v>334</v>
@@ -38871,7 +38871,7 @@
         <v>717</v>
       </c>
       <c r="F364" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="G364" t="s">
         <v>336</v>
@@ -38963,7 +38963,7 @@
         <v>716</v>
       </c>
       <c r="F365" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="G365" t="s">
         <v>337</v>
@@ -39055,7 +39055,7 @@
         <v>712</v>
       </c>
       <c r="F366" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="G366" t="s">
         <v>338</v>
@@ -39147,7 +39147,7 @@
         <v>727</v>
       </c>
       <c r="F367" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="G367" t="s">
         <v>339</v>
@@ -39239,7 +39239,7 @@
         <v>730</v>
       </c>
       <c r="F368" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="G368" t="s">
         <v>348</v>
@@ -39331,7 +39331,7 @@
         <v>749</v>
       </c>
       <c r="F369" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="G369" t="s">
         <v>397</v>
@@ -39423,7 +39423,7 @@
         <v>708</v>
       </c>
       <c r="F370" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="G370" t="s">
         <v>355</v>
@@ -39515,7 +39515,7 @@
         <v>708</v>
       </c>
       <c r="F371" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="G371" t="s">
         <v>356</v>
@@ -39607,7 +39607,7 @@
         <v>707</v>
       </c>
       <c r="F372" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="G372" t="s">
         <v>357</v>
@@ -39699,7 +39699,7 @@
         <v>712</v>
       </c>
       <c r="F373" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="G373" t="s">
         <v>358</v>
@@ -39791,7 +39791,7 @@
         <v>711</v>
       </c>
       <c r="F374" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="G374" t="s">
         <v>359</v>
@@ -39883,7 +39883,7 @@
         <v>711</v>
       </c>
       <c r="F375" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="G375" t="s">
         <v>360</v>
@@ -39975,7 +39975,7 @@
         <v>731</v>
       </c>
       <c r="F376" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="G376" t="s">
         <v>368</v>
@@ -40067,7 +40067,7 @@
         <v>727</v>
       </c>
       <c r="F377" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="G377" t="s">
         <v>371</v>
@@ -40159,7 +40159,7 @@
         <v>734</v>
       </c>
       <c r="F378" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="G378" t="s">
         <v>375</v>
@@ -40251,7 +40251,7 @@
         <v>719</v>
       </c>
       <c r="F379" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="G379" t="s">
         <v>398</v>
@@ -40343,7 +40343,7 @@
         <v>711</v>
       </c>
       <c r="F380" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="G380" t="s">
         <v>379</v>
@@ -40435,7 +40435,7 @@
         <v>735</v>
       </c>
       <c r="F381" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="G381" t="s">
         <v>381</v>
@@ -40527,7 +40527,7 @@
         <v>725</v>
       </c>
       <c r="F382" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="G382" t="s">
         <v>399</v>
@@ -40619,7 +40619,7 @@
         <v>737</v>
       </c>
       <c r="F383" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="G383" t="s">
         <v>738</v>
@@ -40711,7 +40711,7 @@
         <v>739</v>
       </c>
       <c r="F384" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="G384" t="s">
         <v>385</v>
@@ -40803,7 +40803,7 @@
         <v>739</v>
       </c>
       <c r="F385" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="G385" t="s">
         <v>386</v>
@@ -40895,7 +40895,7 @@
         <v>740</v>
       </c>
       <c r="F386" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="G386" t="s">
         <v>388</v>
@@ -40987,7 +40987,7 @@
         <v>720</v>
       </c>
       <c r="F387" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="G387" t="s">
         <v>389</v>
@@ -41079,7 +41079,7 @@
         <v>711</v>
       </c>
       <c r="F388" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="G388" t="s">
         <v>741</v>
@@ -41171,7 +41171,7 @@
         <v>739</v>
       </c>
       <c r="F389" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="G389" t="s">
         <v>390</v>
@@ -41263,7 +41263,7 @@
         <v>712</v>
       </c>
       <c r="F390" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="G390" t="s">
         <v>391</v>
@@ -41355,7 +41355,7 @@
         <v>712</v>
       </c>
       <c r="F391" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="G391" t="s">
         <v>742</v>
@@ -41447,7 +41447,7 @@
         <v>715</v>
       </c>
       <c r="F392" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="G392" t="s">
         <v>392</v>
@@ -41539,7 +41539,7 @@
         <v>711</v>
       </c>
       <c r="F393" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="G393" t="s">
         <v>393</v>
@@ -41631,7 +41631,7 @@
         <v>743</v>
       </c>
       <c r="F394" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="G394" t="s">
         <v>394</v>
@@ -41723,7 +41723,7 @@
         <v>744</v>
       </c>
       <c r="F395" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="G395" t="s">
         <v>395</v>
@@ -41815,7 +41815,7 @@
         <v>734</v>
       </c>
       <c r="F396" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="G396" t="s">
         <v>745</v>
@@ -41907,7 +41907,7 @@
         <v>746</v>
       </c>
       <c r="F397" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="G397" t="s">
         <v>747</v>
@@ -41999,7 +41999,7 @@
         <v>728</v>
       </c>
       <c r="F398" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="G398" t="s">
         <v>396</v>
@@ -42091,7 +42091,7 @@
         <v>728</v>
       </c>
       <c r="F399" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="G399" t="s">
         <v>748</v>
@@ -42183,7 +42183,7 @@
         <v>732</v>
       </c>
       <c r="F400" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="G400" t="s">
         <v>369</v>
@@ -42275,7 +42275,7 @@
         <v>725</v>
       </c>
       <c r="F401" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="G401" t="s">
         <v>370</v>
@@ -42367,7 +42367,7 @@
         <v>725</v>
       </c>
       <c r="F402" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="G402" t="s">
         <v>372</v>
@@ -42459,7 +42459,7 @@
         <v>733</v>
       </c>
       <c r="F403" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="G403" t="s">
         <v>373</v>
@@ -42551,7 +42551,7 @@
         <v>709</v>
       </c>
       <c r="F404" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="G404" t="s">
         <v>374</v>
@@ -42643,7 +42643,7 @@
         <v>736</v>
       </c>
       <c r="F405" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="G405" t="s">
         <v>383</v>
@@ -42735,7 +42735,7 @@
         <v>750</v>
       </c>
       <c r="F406" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="G406" t="s">
         <v>400</v>
@@ -42827,7 +42827,7 @@
         <v>716</v>
       </c>
       <c r="F407" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="G407" t="s">
         <v>401</v>
@@ -42919,7 +42919,7 @@
         <v>751</v>
       </c>
       <c r="F408" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="G408" t="s">
         <v>752</v>
@@ -43011,7 +43011,7 @@
         <v>725</v>
       </c>
       <c r="F409" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="G409" t="s">
         <v>402</v>
@@ -43103,7 +43103,7 @@
         <v>719</v>
       </c>
       <c r="F410" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="G410" t="s">
         <v>753</v>
@@ -43195,7 +43195,7 @@
         <v>709</v>
       </c>
       <c r="F411" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="G411" t="s">
         <v>403</v>
@@ -43287,7 +43287,7 @@
         <v>709</v>
       </c>
       <c r="F412" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="G412" t="s">
         <v>404</v>
@@ -43379,7 +43379,7 @@
         <v>718</v>
       </c>
       <c r="F413" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="G413" t="s">
         <v>405</v>
@@ -43471,7 +43471,7 @@
         <v>717</v>
       </c>
       <c r="F414" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="G414" t="s">
         <v>406</v>
@@ -43563,7 +43563,7 @@
         <v>717</v>
       </c>
       <c r="F415" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="G415" t="s">
         <v>407</v>
@@ -43655,7 +43655,7 @@
         <v>717</v>
       </c>
       <c r="F416" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="G416" t="s">
         <v>408</v>
@@ -43747,7 +43747,7 @@
         <v>708</v>
       </c>
       <c r="F417" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="G417" t="s">
         <v>754</v>
@@ -43839,7 +43839,7 @@
         <v>708</v>
       </c>
       <c r="F418" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="G418" t="s">
         <v>409</v>
@@ -43931,7 +43931,7 @@
         <v>755</v>
       </c>
       <c r="F419" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="G419" t="s">
         <v>410</v>
@@ -44023,7 +44023,7 @@
         <v>756</v>
       </c>
       <c r="F420" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="G420" t="s">
         <v>411</v>
@@ -44115,7 +44115,7 @@
         <v>725</v>
       </c>
       <c r="F421" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="G421" t="s">
         <v>412</v>
@@ -44207,7 +44207,7 @@
         <v>721</v>
       </c>
       <c r="F422" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="G422" t="s">
         <v>413</v>
@@ -44299,7 +44299,7 @@
         <v>732</v>
       </c>
       <c r="F423" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="G423" t="s">
         <v>414</v>
@@ -44391,7 +44391,7 @@
         <v>716</v>
       </c>
       <c r="F424" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="G424" t="s">
         <v>415</v>
@@ -44483,7 +44483,7 @@
         <v>716</v>
       </c>
       <c r="F425" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="G425" t="s">
         <v>416</v>
@@ -44575,7 +44575,7 @@
         <v>716</v>
       </c>
       <c r="F426" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="G426" t="s">
         <v>417</v>
@@ -44667,7 +44667,7 @@
         <v>750</v>
       </c>
       <c r="F427" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="G427" t="s">
         <v>418</v>
@@ -44759,7 +44759,7 @@
         <v>719</v>
       </c>
       <c r="F428" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="G428" t="s">
         <v>419</v>
@@ -44851,7 +44851,7 @@
         <v>728</v>
       </c>
       <c r="F429" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="G429" t="s">
         <v>757</v>
@@ -44943,7 +44943,7 @@
         <v>709</v>
       </c>
       <c r="F430" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="G430" t="s">
         <v>420</v>
@@ -45035,7 +45035,7 @@
         <v>758</v>
       </c>
       <c r="F431" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="G431" t="s">
         <v>421</v>
@@ -45127,7 +45127,7 @@
         <v>743</v>
       </c>
       <c r="F432" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="G432" t="s">
         <v>422</v>
@@ -45219,7 +45219,7 @@
         <v>721</v>
       </c>
       <c r="F433" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="G433" t="s">
         <v>376</v>
@@ -45311,7 +45311,7 @@
         <v>759</v>
       </c>
       <c r="F434" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="G434" t="s">
         <v>760</v>
@@ -45403,7 +45403,7 @@
         <v>761</v>
       </c>
       <c r="F435" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="G435" t="s">
         <v>432</v>
@@ -45495,7 +45495,7 @@
         <v>759</v>
       </c>
       <c r="F436" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="G436" t="s">
         <v>762</v>
@@ -45587,7 +45587,7 @@
         <v>759</v>
       </c>
       <c r="F437" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="G437" t="s">
         <v>436</v>
@@ -45679,7 +45679,7 @@
         <v>759</v>
       </c>
       <c r="F438" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="G438" t="s">
         <v>438</v>
@@ -45771,7 +45771,7 @@
         <v>763</v>
       </c>
       <c r="F439" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="G439" t="s">
         <v>441</v>
@@ -45863,7 +45863,7 @@
         <v>759</v>
       </c>
       <c r="F440" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="G440" t="s">
         <v>444</v>
@@ -45955,7 +45955,7 @@
         <v>761</v>
       </c>
       <c r="F441" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="G441" t="s">
         <v>447</v>
@@ -46047,7 +46047,7 @@
         <v>759</v>
       </c>
       <c r="F442" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="G442" t="s">
         <v>452</v>
@@ -46139,7 +46139,7 @@
         <v>759</v>
       </c>
       <c r="F443" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="G443" t="s">
         <v>455</v>
@@ -46231,7 +46231,7 @@
         <v>759</v>
       </c>
       <c r="F444" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="G444" t="s">
         <v>458</v>
@@ -46323,7 +46323,7 @@
         <v>764</v>
       </c>
       <c r="F445" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="G445" t="s">
         <v>464</v>
@@ -46415,7 +46415,7 @@
         <v>765</v>
       </c>
       <c r="F446" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="G446" t="s">
         <v>468</v>
@@ -46507,7 +46507,7 @@
         <v>765</v>
       </c>
       <c r="F447" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="G447" t="s">
         <v>469</v>
@@ -46599,10 +46599,10 @@
         <v>766</v>
       </c>
       <c r="F448" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="G448" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="H448" t="s">
         <v>28</v>
@@ -46691,7 +46691,7 @@
         <v>767</v>
       </c>
       <c r="F449" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="G449" t="s">
         <v>472</v>
@@ -46783,7 +46783,7 @@
         <v>768</v>
       </c>
       <c r="F450" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="G450" t="s">
         <v>474</v>
@@ -46875,7 +46875,7 @@
         <v>767</v>
       </c>
       <c r="F451" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="G451" t="s">
         <v>475</v>
@@ -46967,7 +46967,7 @@
         <v>769</v>
       </c>
       <c r="F452" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="G452" t="s">
         <v>477</v>
@@ -47059,7 +47059,7 @@
         <v>770</v>
       </c>
       <c r="F453" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="G453" t="s">
         <v>771</v>
@@ -47151,7 +47151,7 @@
         <v>772</v>
       </c>
       <c r="F454" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="G454" t="s">
         <v>479</v>
@@ -47243,7 +47243,7 @@
         <v>765</v>
       </c>
       <c r="F455" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="G455" t="s">
         <v>773</v>
@@ -47335,7 +47335,7 @@
         <v>774</v>
       </c>
       <c r="F456" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="G456" t="s">
         <v>480</v>
@@ -47427,7 +47427,7 @@
         <v>774</v>
       </c>
       <c r="F457" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="G457" t="s">
         <v>481</v>
@@ -47519,7 +47519,7 @@
         <v>767</v>
       </c>
       <c r="F458" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="G458" t="s">
         <v>482</v>
@@ -47611,7 +47611,7 @@
         <v>769</v>
       </c>
       <c r="F459" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="G459" t="s">
         <v>483</v>
@@ -47703,7 +47703,7 @@
         <v>776</v>
       </c>
       <c r="F460" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="G460" t="s">
         <v>777</v>
@@ -47795,7 +47795,7 @@
         <v>780</v>
       </c>
       <c r="F461" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="G461" t="s">
         <v>781</v>
@@ -47887,7 +47887,7 @@
         <v>780</v>
       </c>
       <c r="F462" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="G462" t="s">
         <v>495</v>
@@ -47979,7 +47979,7 @@
         <v>776</v>
       </c>
       <c r="F463" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="G463" t="s">
         <v>782</v>
@@ -48071,7 +48071,7 @@
         <v>783</v>
       </c>
       <c r="F464" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="G464" t="s">
         <v>784</v>
@@ -48163,7 +48163,7 @@
         <v>780</v>
       </c>
       <c r="F465" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="G465" t="s">
         <v>785</v>
@@ -48255,7 +48255,7 @@
         <v>783</v>
       </c>
       <c r="F466" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="G466" t="s">
         <v>786</v>
@@ -48347,7 +48347,7 @@
         <v>783</v>
       </c>
       <c r="F467" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="G467" t="s">
         <v>787</v>
@@ -48439,7 +48439,7 @@
         <v>788</v>
       </c>
       <c r="F468" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="G468" t="s">
         <v>789</v>
@@ -48531,7 +48531,7 @@
         <v>780</v>
       </c>
       <c r="F469" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="G469" t="s">
         <v>790</v>
@@ -48623,7 +48623,7 @@
         <v>791</v>
       </c>
       <c r="F470" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="G470" t="s">
         <v>792</v>
@@ -48715,7 +48715,7 @@
         <v>793</v>
       </c>
       <c r="F471" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="G471" t="s">
         <v>794</v>
@@ -48807,7 +48807,7 @@
         <v>795</v>
       </c>
       <c r="F472" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="G472" t="s">
         <v>796</v>
@@ -48899,7 +48899,7 @@
         <v>793</v>
       </c>
       <c r="F473" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="G473" t="s">
         <v>797</v>
@@ -48991,7 +48991,7 @@
         <v>795</v>
       </c>
       <c r="F474" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="G474" t="s">
         <v>798</v>
@@ -49083,7 +49083,7 @@
         <v>795</v>
       </c>
       <c r="F475" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="G475" t="s">
         <v>799</v>
@@ -49175,7 +49175,7 @@
         <v>795</v>
       </c>
       <c r="F476" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="G476" t="s">
         <v>800</v>
@@ -49267,7 +49267,7 @@
         <v>801</v>
       </c>
       <c r="F477" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="G477" t="s">
         <v>802</v>
@@ -49359,7 +49359,7 @@
         <v>801</v>
       </c>
       <c r="F478" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="G478" t="s">
         <v>803</v>
@@ -49451,7 +49451,7 @@
         <v>801</v>
       </c>
       <c r="F479" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="G479" t="s">
         <v>804</v>
@@ -49543,7 +49543,7 @@
         <v>801</v>
       </c>
       <c r="F480" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="G480" t="s">
         <v>805</v>
@@ -49635,7 +49635,7 @@
         <v>806</v>
       </c>
       <c r="F481" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="G481" t="s">
         <v>807</v>
@@ -49727,7 +49727,7 @@
         <v>795</v>
       </c>
       <c r="F482" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="G482" t="s">
         <v>808</v>
@@ -49819,7 +49819,7 @@
         <v>809</v>
       </c>
       <c r="F483" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="G483" t="s">
         <v>810</v>
@@ -49911,7 +49911,7 @@
         <v>795</v>
       </c>
       <c r="F484" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="G484" t="s">
         <v>811</v>
@@ -50003,7 +50003,7 @@
         <v>795</v>
       </c>
       <c r="F485" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="G485" t="s">
         <v>812</v>
@@ -50095,7 +50095,7 @@
         <v>793</v>
       </c>
       <c r="F486" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="G486" t="s">
         <v>813</v>
@@ -50187,7 +50187,7 @@
         <v>795</v>
       </c>
       <c r="F487" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="G487" t="s">
         <v>814</v>
@@ -50279,7 +50279,7 @@
         <v>793</v>
       </c>
       <c r="F488" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="G488" t="s">
         <v>815</v>
@@ -50371,7 +50371,7 @@
         <v>795</v>
       </c>
       <c r="F489" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="G489" t="s">
         <v>816</v>
@@ -50463,7 +50463,7 @@
         <v>809</v>
       </c>
       <c r="F490" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="G490" t="s">
         <v>817</v>
@@ -50555,7 +50555,7 @@
         <v>795</v>
       </c>
       <c r="F491" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="G491" t="s">
         <v>818</v>
@@ -50647,7 +50647,7 @@
         <v>819</v>
       </c>
       <c r="F492" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="G492" t="s">
         <v>820</v>

--- a/Metadonnees.xlsx
+++ b/Metadonnees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk69074\Projet python\depot_github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A680C7-B084-47D6-A07B-F94F96EC74E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA67B47-A693-410F-BEA4-5EA6C98482E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C0AAFE56-323A-4AA3-A453-F318071692D0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12390" uniqueCount="1674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12390" uniqueCount="1676">
   <si>
     <t>Cat_naturaliste</t>
   </si>
@@ -5073,6 +5073,12 @@
   </si>
   <si>
     <t>La zone précisée sur le plan correspondera au périmètre identifié comme territoire de l'espèce par des experts naturalistes. Faire remonter la clause via la fiche désignation ou chantier selon les cas. Espèce très rare. Contacter SEAP.</t>
+  </si>
+  <si>
+    <t>Si nidification de Pic vert localisée, consigne de martelage : réserver l'abre porteur de nid en arbre bio. Ne pas créer de cloisonnement sur la trajectoire de l'arbre en question.</t>
+  </si>
+  <si>
+    <t>Si nidification de Pic épeiche localisée, consigne de martelage : réserver l'abre porteur de nid en arbre bio. Ne pas créer de cloisonnement sur la trajectoire de l'arbre en question.</t>
   </si>
 </sst>
 </file>
@@ -5446,8 +5452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32DFB322-0C0C-4C14-830F-4BADDD5E88B6}">
   <dimension ref="A1:AD492"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D496" sqref="D496"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A495" sqref="A1:XFD495"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9971,22 +9977,22 @@
         <v>827</v>
       </c>
       <c r="B50">
-        <v>94567</v>
+        <v>95561</v>
       </c>
       <c r="C50" t="s">
         <v>816</v>
       </c>
       <c r="D50" t="s">
-        <v>845</v>
+        <v>883</v>
       </c>
       <c r="E50" t="s">
-        <v>846</v>
+        <v>884</v>
       </c>
       <c r="F50" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="G50" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
       <c r="H50" t="s">
         <v>46</v>
@@ -10004,7 +10010,7 @@
         <v>2</v>
       </c>
       <c r="M50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N50" t="s">
         <v>528</v>
@@ -10013,7 +10019,7 @@
         <v>528</v>
       </c>
       <c r="P50" t="s">
-        <v>528</v>
+        <v>838</v>
       </c>
       <c r="Q50" t="s">
         <v>528</v>
@@ -10022,13 +10028,13 @@
         <v>528</v>
       </c>
       <c r="S50" t="s">
-        <v>528</v>
+        <v>72</v>
       </c>
       <c r="T50" t="s">
-        <v>528</v>
+        <v>48</v>
       </c>
       <c r="U50" t="s">
-        <v>528</v>
+        <v>33</v>
       </c>
       <c r="V50" t="s">
         <v>1118</v>
@@ -10063,31 +10069,31 @@
         <v>827</v>
       </c>
       <c r="B51">
-        <v>95561</v>
+        <v>88472</v>
       </c>
       <c r="C51" t="s">
         <v>816</v>
       </c>
       <c r="D51" t="s">
-        <v>883</v>
+        <v>828</v>
       </c>
       <c r="E51" t="s">
-        <v>884</v>
+        <v>829</v>
       </c>
       <c r="F51" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="G51" t="s">
-        <v>1120</v>
+        <v>830</v>
       </c>
       <c r="H51" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="I51" t="s">
         <v>52</v>
       </c>
       <c r="J51">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K51">
         <v>1</v>
@@ -10105,10 +10111,10 @@
         <v>528</v>
       </c>
       <c r="P51" t="s">
-        <v>838</v>
+        <v>528</v>
       </c>
       <c r="Q51" t="s">
-        <v>528</v>
+        <v>831</v>
       </c>
       <c r="R51" t="s">
         <v>528</v>
@@ -10123,7 +10129,7 @@
         <v>33</v>
       </c>
       <c r="V51" t="s">
-        <v>1118</v>
+        <v>1664</v>
       </c>
       <c r="W51" t="s">
         <v>74</v>
@@ -10155,22 +10161,22 @@
         <v>827</v>
       </c>
       <c r="B52">
-        <v>88472</v>
+        <v>124699</v>
       </c>
       <c r="C52" t="s">
         <v>816</v>
       </c>
       <c r="D52" t="s">
-        <v>828</v>
+        <v>842</v>
       </c>
       <c r="E52" t="s">
-        <v>829</v>
+        <v>843</v>
       </c>
       <c r="F52" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="G52" t="s">
-        <v>830</v>
+        <v>844</v>
       </c>
       <c r="H52" t="s">
         <v>27</v>
@@ -10191,16 +10197,16 @@
         <v>2</v>
       </c>
       <c r="N52" t="s">
-        <v>528</v>
+        <v>45</v>
       </c>
       <c r="O52" t="s">
         <v>528</v>
       </c>
       <c r="P52" t="s">
-        <v>528</v>
+        <v>838</v>
       </c>
       <c r="Q52" t="s">
-        <v>831</v>
+        <v>528</v>
       </c>
       <c r="R52" t="s">
         <v>528</v>
@@ -10215,7 +10221,7 @@
         <v>33</v>
       </c>
       <c r="V52" t="s">
-        <v>1664</v>
+        <v>1118</v>
       </c>
       <c r="W52" t="s">
         <v>74</v>
@@ -10247,7 +10253,7 @@
         <v>827</v>
       </c>
       <c r="B53">
-        <v>124699</v>
+        <v>82286</v>
       </c>
       <c r="C53" t="s">
         <v>816</v>
@@ -10259,10 +10265,10 @@
         <v>843</v>
       </c>
       <c r="F53" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="G53" t="s">
-        <v>844</v>
+        <v>850</v>
       </c>
       <c r="H53" t="s">
         <v>27</v>
@@ -10283,19 +10289,19 @@
         <v>2</v>
       </c>
       <c r="N53" t="s">
-        <v>45</v>
+        <v>528</v>
       </c>
       <c r="O53" t="s">
         <v>528</v>
       </c>
       <c r="P53" t="s">
-        <v>838</v>
+        <v>528</v>
       </c>
       <c r="Q53" t="s">
         <v>528</v>
       </c>
       <c r="R53" t="s">
-        <v>528</v>
+        <v>819</v>
       </c>
       <c r="S53" t="s">
         <v>72</v>
@@ -10307,7 +10313,7 @@
         <v>33</v>
       </c>
       <c r="V53" t="s">
-        <v>1118</v>
+        <v>1663</v>
       </c>
       <c r="W53" t="s">
         <v>74</v>
@@ -10339,22 +10345,22 @@
         <v>827</v>
       </c>
       <c r="B54">
-        <v>82286</v>
+        <v>115282</v>
       </c>
       <c r="C54" t="s">
         <v>816</v>
       </c>
       <c r="D54" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="E54" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="F54" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="G54" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="H54" t="s">
         <v>27</v>
@@ -10384,10 +10390,10 @@
         <v>528</v>
       </c>
       <c r="Q54" t="s">
-        <v>528</v>
+        <v>831</v>
       </c>
       <c r="R54" t="s">
-        <v>819</v>
+        <v>528</v>
       </c>
       <c r="S54" t="s">
         <v>72</v>
@@ -10399,7 +10405,7 @@
         <v>33</v>
       </c>
       <c r="V54" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="W54" t="s">
         <v>74</v>
@@ -10431,34 +10437,34 @@
         <v>827</v>
       </c>
       <c r="B55">
-        <v>115282</v>
+        <v>102870</v>
       </c>
       <c r="C55" t="s">
         <v>816</v>
       </c>
       <c r="D55" t="s">
-        <v>839</v>
+        <v>862</v>
       </c>
       <c r="E55" t="s">
-        <v>840</v>
+        <v>875</v>
       </c>
       <c r="F55" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
       <c r="G55" t="s">
-        <v>852</v>
+        <v>876</v>
       </c>
       <c r="H55" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="I55" t="s">
         <v>52</v>
       </c>
       <c r="J55">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L55">
         <v>2</v>
@@ -10523,40 +10529,40 @@
         <v>827</v>
       </c>
       <c r="B56">
-        <v>93783</v>
+        <v>103173</v>
       </c>
       <c r="C56" t="s">
         <v>816</v>
       </c>
       <c r="D56" t="s">
-        <v>853</v>
+        <v>889</v>
       </c>
       <c r="E56" t="s">
-        <v>911</v>
+        <v>890</v>
       </c>
       <c r="F56" t="s">
-        <v>1230</v>
+        <v>1232</v>
       </c>
       <c r="G56" t="s">
-        <v>1117</v>
+        <v>921</v>
       </c>
       <c r="H56" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="I56" t="s">
         <v>52</v>
       </c>
       <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56">
         <v>3</v>
       </c>
-      <c r="K56">
-        <v>1</v>
-      </c>
       <c r="L56">
         <v>2</v>
       </c>
       <c r="M56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N56" t="s">
         <v>528</v>
@@ -10565,7 +10571,7 @@
         <v>528</v>
       </c>
       <c r="P56" t="s">
-        <v>528</v>
+        <v>838</v>
       </c>
       <c r="Q56" t="s">
         <v>528</v>
@@ -10574,13 +10580,13 @@
         <v>528</v>
       </c>
       <c r="S56" t="s">
-        <v>528</v>
+        <v>72</v>
       </c>
       <c r="T56" t="s">
-        <v>528</v>
+        <v>48</v>
       </c>
       <c r="U56" t="s">
-        <v>528</v>
+        <v>33</v>
       </c>
       <c r="V56" t="s">
         <v>1118</v>
@@ -10615,34 +10621,34 @@
         <v>827</v>
       </c>
       <c r="B57">
-        <v>102870</v>
+        <v>90222</v>
       </c>
       <c r="C57" t="s">
         <v>816</v>
       </c>
       <c r="D57" t="s">
-        <v>862</v>
+        <v>1051</v>
       </c>
       <c r="E57" t="s">
-        <v>875</v>
+        <v>1052</v>
       </c>
       <c r="F57" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="G57" t="s">
-        <v>876</v>
+        <v>1053</v>
       </c>
       <c r="H57" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I57" t="s">
         <v>52</v>
       </c>
       <c r="J57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L57">
         <v>2</v>
@@ -10663,7 +10669,7 @@
         <v>831</v>
       </c>
       <c r="R57" t="s">
-        <v>528</v>
+        <v>819</v>
       </c>
       <c r="S57" t="s">
         <v>72</v>
@@ -10675,7 +10681,7 @@
         <v>33</v>
       </c>
       <c r="V57" t="s">
-        <v>1664</v>
+        <v>1118</v>
       </c>
       <c r="W57" t="s">
         <v>74</v>
@@ -10707,22 +10713,22 @@
         <v>827</v>
       </c>
       <c r="B58">
-        <v>103173</v>
+        <v>121556</v>
       </c>
       <c r="C58" t="s">
         <v>816</v>
       </c>
       <c r="D58" t="s">
-        <v>889</v>
+        <v>828</v>
       </c>
       <c r="E58" t="s">
-        <v>890</v>
+        <v>829</v>
       </c>
       <c r="F58" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="G58" t="s">
-        <v>921</v>
+        <v>1110</v>
       </c>
       <c r="H58" t="s">
         <v>49</v>
@@ -10749,13 +10755,13 @@
         <v>528</v>
       </c>
       <c r="P58" t="s">
-        <v>838</v>
+        <v>528</v>
       </c>
       <c r="Q58" t="s">
         <v>528</v>
       </c>
       <c r="R58" t="s">
-        <v>528</v>
+        <v>819</v>
       </c>
       <c r="S58" t="s">
         <v>72</v>
@@ -10767,7 +10773,7 @@
         <v>33</v>
       </c>
       <c r="V58" t="s">
-        <v>1118</v>
+        <v>1663</v>
       </c>
       <c r="W58" t="s">
         <v>74</v>
@@ -10799,22 +10805,22 @@
         <v>827</v>
       </c>
       <c r="B59">
-        <v>90222</v>
+        <v>718238</v>
       </c>
       <c r="C59" t="s">
         <v>816</v>
       </c>
       <c r="D59" t="s">
-        <v>1051</v>
+        <v>853</v>
       </c>
       <c r="E59" t="s">
-        <v>1052</v>
+        <v>911</v>
       </c>
       <c r="F59" t="s">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="G59" t="s">
-        <v>1053</v>
+        <v>1113</v>
       </c>
       <c r="H59" t="s">
         <v>49</v>
@@ -10844,7 +10850,7 @@
         <v>528</v>
       </c>
       <c r="Q59" t="s">
-        <v>831</v>
+        <v>528</v>
       </c>
       <c r="R59" t="s">
         <v>819</v>
@@ -10859,7 +10865,7 @@
         <v>33</v>
       </c>
       <c r="V59" t="s">
-        <v>1118</v>
+        <v>1663</v>
       </c>
       <c r="W59" t="s">
         <v>74</v>
@@ -10891,22 +10897,22 @@
         <v>827</v>
       </c>
       <c r="B60">
-        <v>121556</v>
+        <v>80037</v>
       </c>
       <c r="C60" t="s">
         <v>816</v>
       </c>
       <c r="D60" t="s">
-        <v>828</v>
+        <v>845</v>
       </c>
       <c r="E60" t="s">
-        <v>829</v>
+        <v>846</v>
       </c>
       <c r="F60" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
       <c r="G60" t="s">
-        <v>1110</v>
+        <v>1121</v>
       </c>
       <c r="H60" t="s">
         <v>49</v>
@@ -10983,7 +10989,7 @@
         <v>827</v>
       </c>
       <c r="B61">
-        <v>718238</v>
+        <v>138765</v>
       </c>
       <c r="C61" t="s">
         <v>816</v>
@@ -10992,13 +10998,13 @@
         <v>853</v>
       </c>
       <c r="E61" t="s">
-        <v>911</v>
+        <v>895</v>
       </c>
       <c r="F61" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G61" t="s">
-        <v>1113</v>
+        <v>1122</v>
       </c>
       <c r="H61" t="s">
         <v>49</v>
@@ -11028,10 +11034,10 @@
         <v>528</v>
       </c>
       <c r="Q61" t="s">
-        <v>528</v>
+        <v>831</v>
       </c>
       <c r="R61" t="s">
-        <v>819</v>
+        <v>528</v>
       </c>
       <c r="S61" t="s">
         <v>72</v>
@@ -11043,7 +11049,7 @@
         <v>33</v>
       </c>
       <c r="V61" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="W61" t="s">
         <v>74</v>
@@ -11075,22 +11081,22 @@
         <v>827</v>
       </c>
       <c r="B62">
-        <v>80037</v>
+        <v>975602</v>
       </c>
       <c r="C62" t="s">
         <v>816</v>
       </c>
       <c r="D62" t="s">
-        <v>845</v>
+        <v>897</v>
       </c>
       <c r="E62" t="s">
-        <v>846</v>
+        <v>898</v>
       </c>
       <c r="F62" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="G62" t="s">
-        <v>1121</v>
+        <v>899</v>
       </c>
       <c r="H62" t="s">
         <v>49</v>
@@ -11117,13 +11123,13 @@
         <v>528</v>
       </c>
       <c r="P62" t="s">
-        <v>528</v>
+        <v>838</v>
       </c>
       <c r="Q62" t="s">
         <v>528</v>
       </c>
       <c r="R62" t="s">
-        <v>819</v>
+        <v>528</v>
       </c>
       <c r="S62" t="s">
         <v>72</v>
@@ -11135,7 +11141,7 @@
         <v>33</v>
       </c>
       <c r="V62" t="s">
-        <v>1663</v>
+        <v>1118</v>
       </c>
       <c r="W62" t="s">
         <v>74</v>
@@ -11167,40 +11173,40 @@
         <v>827</v>
       </c>
       <c r="B63">
-        <v>138765</v>
+        <v>94567</v>
       </c>
       <c r="C63" t="s">
         <v>816</v>
       </c>
       <c r="D63" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="E63" t="s">
-        <v>895</v>
+        <v>846</v>
       </c>
       <c r="F63" t="s">
-        <v>1237</v>
+        <v>1224</v>
       </c>
       <c r="G63" t="s">
-        <v>1122</v>
+        <v>1116</v>
       </c>
       <c r="H63" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I63" t="s">
         <v>52</v>
       </c>
       <c r="J63">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L63">
         <v>2</v>
       </c>
       <c r="M63">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N63" t="s">
         <v>528</v>
@@ -11212,22 +11218,22 @@
         <v>528</v>
       </c>
       <c r="Q63" t="s">
-        <v>831</v>
+        <v>528</v>
       </c>
       <c r="R63" t="s">
         <v>528</v>
       </c>
       <c r="S63" t="s">
-        <v>72</v>
+        <v>528</v>
       </c>
       <c r="T63" t="s">
-        <v>48</v>
+        <v>528</v>
       </c>
       <c r="U63" t="s">
-        <v>33</v>
+        <v>528</v>
       </c>
       <c r="V63" t="s">
-        <v>1664</v>
+        <v>1118</v>
       </c>
       <c r="W63" t="s">
         <v>74</v>
@@ -11259,40 +11265,40 @@
         <v>827</v>
       </c>
       <c r="B64">
-        <v>975602</v>
+        <v>92254</v>
       </c>
       <c r="C64" t="s">
         <v>816</v>
       </c>
       <c r="D64" t="s">
-        <v>897</v>
+        <v>868</v>
       </c>
       <c r="E64" t="s">
-        <v>898</v>
+        <v>869</v>
       </c>
       <c r="F64" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="G64" t="s">
-        <v>899</v>
+        <v>873</v>
       </c>
       <c r="H64" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I64" t="s">
         <v>52</v>
       </c>
       <c r="J64">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L64">
         <v>2</v>
       </c>
       <c r="M64">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N64" t="s">
         <v>528</v>
@@ -11301,7 +11307,7 @@
         <v>528</v>
       </c>
       <c r="P64" t="s">
-        <v>838</v>
+        <v>528</v>
       </c>
       <c r="Q64" t="s">
         <v>528</v>
@@ -11310,13 +11316,13 @@
         <v>528</v>
       </c>
       <c r="S64" t="s">
-        <v>72</v>
+        <v>528</v>
       </c>
       <c r="T64" t="s">
-        <v>48</v>
+        <v>528</v>
       </c>
       <c r="U64" t="s">
-        <v>33</v>
+        <v>528</v>
       </c>
       <c r="V64" t="s">
         <v>1118</v>
@@ -11343,7 +11349,7 @@
         <v>531</v>
       </c>
       <c r="AD64" t="s">
-        <v>528</v>
+        <v>820</v>
       </c>
     </row>
     <row r="65" spans="1:30" x14ac:dyDescent="0.25">
@@ -11351,31 +11357,31 @@
         <v>827</v>
       </c>
       <c r="B65">
-        <v>92254</v>
+        <v>93783</v>
       </c>
       <c r="C65" t="s">
         <v>816</v>
       </c>
       <c r="D65" t="s">
-        <v>868</v>
+        <v>853</v>
       </c>
       <c r="E65" t="s">
-        <v>869</v>
+        <v>911</v>
       </c>
       <c r="F65" t="s">
-        <v>1239</v>
+        <v>1230</v>
       </c>
       <c r="G65" t="s">
-        <v>873</v>
+        <v>1117</v>
       </c>
       <c r="H65" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="I65" t="s">
         <v>52</v>
       </c>
       <c r="J65">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K65">
         <v>1</v>
@@ -11435,7 +11441,7 @@
         <v>531</v>
       </c>
       <c r="AD65" t="s">
-        <v>820</v>
+        <v>528</v>
       </c>
     </row>
     <row r="66" spans="1:30" x14ac:dyDescent="0.25">
@@ -42171,25 +42177,25 @@
         <v>238</v>
       </c>
       <c r="B400">
-        <v>4308</v>
+        <v>3603</v>
       </c>
       <c r="C400" t="s">
         <v>239</v>
       </c>
       <c r="D400" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="E400" t="s">
-        <v>728</v>
+        <v>704</v>
       </c>
       <c r="F400" t="s">
-        <v>1569</v>
+        <v>1586</v>
       </c>
       <c r="G400" t="s">
-        <v>369</v>
+        <v>750</v>
       </c>
       <c r="H400" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I400" t="s">
         <v>49</v>
@@ -42204,7 +42210,7 @@
         <v>1</v>
       </c>
       <c r="M400">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N400" t="s">
         <v>528</v>
@@ -42228,7 +42234,7 @@
         <v>525</v>
       </c>
       <c r="U400" t="s">
-        <v>133</v>
+        <v>33</v>
       </c>
       <c r="V400" t="s">
         <v>528</v>
@@ -42249,7 +42255,7 @@
         <v>528</v>
       </c>
       <c r="AB400" t="s">
-        <v>537</v>
+        <v>1674</v>
       </c>
       <c r="AC400" t="s">
         <v>528</v>
@@ -42263,25 +42269,25 @@
         <v>238</v>
       </c>
       <c r="B401">
-        <v>4319</v>
+        <v>3611</v>
       </c>
       <c r="C401" t="s">
         <v>239</v>
       </c>
       <c r="D401" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="E401" t="s">
-        <v>721</v>
+        <v>704</v>
       </c>
       <c r="F401" t="s">
-        <v>1570</v>
+        <v>1587</v>
       </c>
       <c r="G401" t="s">
-        <v>370</v>
+        <v>409</v>
       </c>
       <c r="H401" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I401" t="s">
         <v>49</v>
@@ -42296,7 +42302,7 @@
         <v>1</v>
       </c>
       <c r="M401">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N401" t="s">
         <v>528</v>
@@ -42320,7 +42326,7 @@
         <v>525</v>
       </c>
       <c r="U401" t="s">
-        <v>133</v>
+        <v>33</v>
       </c>
       <c r="V401" t="s">
         <v>528</v>
@@ -42341,7 +42347,7 @@
         <v>528</v>
       </c>
       <c r="AB401" t="s">
-        <v>537</v>
+        <v>1675</v>
       </c>
       <c r="AC401" t="s">
         <v>528</v>
@@ -42355,7 +42361,7 @@
         <v>238</v>
       </c>
       <c r="B402">
-        <v>199425</v>
+        <v>4308</v>
       </c>
       <c r="C402" t="s">
         <v>239</v>
@@ -42364,13 +42370,13 @@
         <v>257</v>
       </c>
       <c r="E402" t="s">
-        <v>721</v>
+        <v>728</v>
       </c>
       <c r="F402" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="G402" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="H402" t="s">
         <v>40</v>
@@ -42447,7 +42453,7 @@
         <v>238</v>
       </c>
       <c r="B403">
-        <v>4167</v>
+        <v>4319</v>
       </c>
       <c r="C403" t="s">
         <v>239</v>
@@ -42456,13 +42462,13 @@
         <v>257</v>
       </c>
       <c r="E403" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
       <c r="F403" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="G403" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="H403" t="s">
         <v>40</v>
@@ -42531,7 +42537,7 @@
         <v>528</v>
       </c>
       <c r="AD403" t="s">
-        <v>284</v>
+        <v>528</v>
       </c>
     </row>
     <row r="404" spans="1:30" x14ac:dyDescent="0.25">
@@ -42539,7 +42545,7 @@
         <v>238</v>
       </c>
       <c r="B404">
-        <v>4254</v>
+        <v>199425</v>
       </c>
       <c r="C404" t="s">
         <v>239</v>
@@ -42548,13 +42554,13 @@
         <v>257</v>
       </c>
       <c r="E404" t="s">
-        <v>705</v>
+        <v>721</v>
       </c>
       <c r="F404" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="G404" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H404" t="s">
         <v>40</v>
@@ -42631,28 +42637,28 @@
         <v>238</v>
       </c>
       <c r="B405">
-        <v>3465</v>
+        <v>4167</v>
       </c>
       <c r="C405" t="s">
         <v>239</v>
       </c>
       <c r="D405" t="s">
-        <v>382</v>
+        <v>257</v>
       </c>
       <c r="E405" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="F405" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="G405" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="H405" t="s">
+        <v>40</v>
+      </c>
+      <c r="I405" t="s">
         <v>49</v>
-      </c>
-      <c r="I405" t="s">
-        <v>40</v>
       </c>
       <c r="J405">
         <v>1</v>
@@ -42715,7 +42721,7 @@
         <v>528</v>
       </c>
       <c r="AD405" t="s">
-        <v>528</v>
+        <v>284</v>
       </c>
     </row>
     <row r="406" spans="1:30" x14ac:dyDescent="0.25">
@@ -42723,7 +42729,7 @@
         <v>238</v>
       </c>
       <c r="B406">
-        <v>3784</v>
+        <v>4254</v>
       </c>
       <c r="C406" t="s">
         <v>239</v>
@@ -42732,25 +42738,25 @@
         <v>257</v>
       </c>
       <c r="E406" t="s">
-        <v>746</v>
+        <v>705</v>
       </c>
       <c r="F406" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="G406" t="s">
-        <v>400</v>
+        <v>374</v>
       </c>
       <c r="H406" t="s">
+        <v>40</v>
+      </c>
+      <c r="I406" t="s">
         <v>49</v>
       </c>
-      <c r="I406" t="s">
-        <v>40</v>
-      </c>
       <c r="J406">
         <v>1</v>
       </c>
       <c r="K406">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L406">
         <v>1</v>
@@ -42815,22 +42821,22 @@
         <v>238</v>
       </c>
       <c r="B407">
-        <v>534751</v>
+        <v>3465</v>
       </c>
       <c r="C407" t="s">
         <v>239</v>
       </c>
       <c r="D407" t="s">
-        <v>257</v>
+        <v>382</v>
       </c>
       <c r="E407" t="s">
-        <v>712</v>
+        <v>732</v>
       </c>
       <c r="F407" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="G407" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="H407" t="s">
         <v>49</v>
@@ -42907,7 +42913,7 @@
         <v>238</v>
       </c>
       <c r="B408">
-        <v>3774</v>
+        <v>3784</v>
       </c>
       <c r="C408" t="s">
         <v>239</v>
@@ -42916,13 +42922,13 @@
         <v>257</v>
       </c>
       <c r="E408" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="F408" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="G408" t="s">
-        <v>748</v>
+        <v>400</v>
       </c>
       <c r="H408" t="s">
         <v>49</v>
@@ -42934,7 +42940,7 @@
         <v>1</v>
       </c>
       <c r="K408">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L408">
         <v>1</v>
@@ -42999,7 +43005,7 @@
         <v>238</v>
       </c>
       <c r="B409">
-        <v>4040</v>
+        <v>534751</v>
       </c>
       <c r="C409" t="s">
         <v>239</v>
@@ -43008,19 +43014,19 @@
         <v>257</v>
       </c>
       <c r="E409" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="F409" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="G409" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H409" t="s">
         <v>49</v>
       </c>
       <c r="I409" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J409">
         <v>1</v>
@@ -43091,7 +43097,7 @@
         <v>238</v>
       </c>
       <c r="B410">
-        <v>4625</v>
+        <v>3774</v>
       </c>
       <c r="C410" t="s">
         <v>239</v>
@@ -43100,19 +43106,19 @@
         <v>257</v>
       </c>
       <c r="E410" t="s">
-        <v>715</v>
+        <v>747</v>
       </c>
       <c r="F410" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="G410" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H410" t="s">
         <v>49</v>
       </c>
       <c r="I410" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J410">
         <v>1</v>
@@ -43183,7 +43189,7 @@
         <v>238</v>
       </c>
       <c r="B411">
-        <v>1027359</v>
+        <v>4040</v>
       </c>
       <c r="C411" t="s">
         <v>239</v>
@@ -43192,13 +43198,13 @@
         <v>257</v>
       </c>
       <c r="E411" t="s">
-        <v>705</v>
+        <v>721</v>
       </c>
       <c r="F411" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="G411" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H411" t="s">
         <v>49</v>
@@ -43275,7 +43281,7 @@
         <v>238</v>
       </c>
       <c r="B412">
-        <v>4252</v>
+        <v>4625</v>
       </c>
       <c r="C412" t="s">
         <v>239</v>
@@ -43284,13 +43290,13 @@
         <v>257</v>
       </c>
       <c r="E412" t="s">
-        <v>705</v>
+        <v>715</v>
       </c>
       <c r="F412" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="G412" t="s">
-        <v>404</v>
+        <v>749</v>
       </c>
       <c r="H412" t="s">
         <v>49</v>
@@ -43367,7 +43373,7 @@
         <v>238</v>
       </c>
       <c r="B413">
-        <v>4659</v>
+        <v>1027359</v>
       </c>
       <c r="C413" t="s">
         <v>239</v>
@@ -43376,13 +43382,13 @@
         <v>257</v>
       </c>
       <c r="E413" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="F413" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="G413" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H413" t="s">
         <v>49</v>
@@ -43459,7 +43465,7 @@
         <v>238</v>
       </c>
       <c r="B414">
-        <v>3941</v>
+        <v>4252</v>
       </c>
       <c r="C414" t="s">
         <v>239</v>
@@ -43468,13 +43474,13 @@
         <v>257</v>
       </c>
       <c r="E414" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="F414" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="G414" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="H414" t="s">
         <v>49</v>
@@ -43551,7 +43557,7 @@
         <v>238</v>
       </c>
       <c r="B415">
-        <v>3755</v>
+        <v>4659</v>
       </c>
       <c r="C415" t="s">
         <v>239</v>
@@ -43560,13 +43566,13 @@
         <v>257</v>
       </c>
       <c r="E415" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="F415" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="G415" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="H415" t="s">
         <v>49</v>
@@ -43643,7 +43649,7 @@
         <v>238</v>
       </c>
       <c r="B416">
-        <v>3741</v>
+        <v>3941</v>
       </c>
       <c r="C416" t="s">
         <v>239</v>
@@ -43655,10 +43661,10 @@
         <v>713</v>
       </c>
       <c r="F416" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="G416" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="H416" t="s">
         <v>49</v>
@@ -43727,7 +43733,7 @@
         <v>528</v>
       </c>
       <c r="AD416" t="s">
-        <v>284</v>
+        <v>528</v>
       </c>
     </row>
     <row r="417" spans="1:30" x14ac:dyDescent="0.25">
@@ -43735,22 +43741,22 @@
         <v>238</v>
       </c>
       <c r="B417">
-        <v>3603</v>
+        <v>3755</v>
       </c>
       <c r="C417" t="s">
         <v>239</v>
       </c>
       <c r="D417" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E417" t="s">
-        <v>704</v>
+        <v>713</v>
       </c>
       <c r="F417" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="G417" t="s">
-        <v>750</v>
+        <v>407</v>
       </c>
       <c r="H417" t="s">
         <v>49</v>
@@ -43827,22 +43833,22 @@
         <v>238</v>
       </c>
       <c r="B418">
-        <v>3611</v>
+        <v>3741</v>
       </c>
       <c r="C418" t="s">
         <v>239</v>
       </c>
       <c r="D418" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E418" t="s">
-        <v>704</v>
+        <v>713</v>
       </c>
       <c r="F418" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="G418" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H418" t="s">
         <v>49</v>
@@ -43911,7 +43917,7 @@
         <v>528</v>
       </c>
       <c r="AD418" t="s">
-        <v>528</v>
+        <v>284</v>
       </c>
     </row>
     <row r="419" spans="1:30" x14ac:dyDescent="0.25">

--- a/Metadonnees.xlsx
+++ b/Metadonnees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk69074\Projet python\depot_github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED972CD-FE8F-4E1F-BD8B-F014D664B20B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5341093F-A2BF-4C65-961B-37F63F44CA0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C0AAFE56-323A-4AA3-A453-F318071692D0}"/>
   </bookViews>
@@ -5612,9 +5612,6 @@
     <t>Lisières, Milieu humide boisé, Tourbières, Marais</t>
   </si>
   <si>
-    <t>Ubiquiste</t>
-  </si>
-  <si>
     <t>Si nidification de Mésange nonnette localisée, ne pas couper l'arbre porteur de nid pendant la période de nidification (avril-juillet).</t>
   </si>
   <si>
@@ -5622,6 +5619,9 @@
   </si>
   <si>
     <t>Réglementaire</t>
+  </si>
+  <si>
+    <t>LC_non_traçable</t>
   </si>
 </sst>
 </file>
@@ -5995,7 +5995,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32DFB322-0C0C-4C14-830F-4BADDD5E88B6}">
   <dimension ref="A1:AG480"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6040,10 +6042,10 @@
         <v>8</v>
       </c>
       <c r="L1" t="s">
+        <v>1854</v>
+      </c>
+      <c r="M1" t="s">
         <v>1855</v>
-      </c>
-      <c r="M1" t="s">
-        <v>1856</v>
       </c>
       <c r="N1" t="s">
         <v>1636</v>
@@ -6073,7 +6075,7 @@
         <v>12</v>
       </c>
       <c r="W1" t="s">
-        <v>1853</v>
+        <v>1856</v>
       </c>
       <c r="X1" t="s">
         <v>13</v>
@@ -40490,7 +40492,7 @@
         <v>499</v>
       </c>
       <c r="AD351" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="AF351" t="s">
         <v>551</v>
@@ -44475,10 +44477,10 @@
         <v>0</v>
       </c>
       <c r="M392">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N392">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="O392" t="s">
         <v>1655</v>
@@ -44505,7 +44507,7 @@
         <v>496</v>
       </c>
       <c r="W392" t="s">
-        <v>30</v>
+        <v>119</v>
       </c>
       <c r="X392" t="s">
         <v>499</v>
@@ -44573,10 +44575,10 @@
         <v>0</v>
       </c>
       <c r="M393">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N393">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="O393" t="s">
         <v>1813</v>
@@ -44603,7 +44605,7 @@
         <v>496</v>
       </c>
       <c r="W393" t="s">
-        <v>30</v>
+        <v>119</v>
       </c>
       <c r="X393" t="s">
         <v>499</v>
@@ -44671,10 +44673,10 @@
         <v>0</v>
       </c>
       <c r="M394">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N394">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="O394" t="s">
         <v>1825</v>
@@ -44701,7 +44703,7 @@
         <v>496</v>
       </c>
       <c r="W394" t="s">
-        <v>30</v>
+        <v>119</v>
       </c>
       <c r="X394" t="s">
         <v>499</v>
@@ -44769,10 +44771,10 @@
         <v>0</v>
       </c>
       <c r="M395">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N395">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="O395" t="s">
         <v>1747</v>
@@ -44799,7 +44801,7 @@
         <v>496</v>
       </c>
       <c r="W395" t="s">
-        <v>30</v>
+        <v>119</v>
       </c>
       <c r="X395" t="s">
         <v>499</v>
@@ -44867,10 +44869,10 @@
         <v>0</v>
       </c>
       <c r="M396">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N396">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="O396" t="s">
         <v>1813</v>
@@ -44897,7 +44899,7 @@
         <v>496</v>
       </c>
       <c r="W396" t="s">
-        <v>30</v>
+        <v>119</v>
       </c>
       <c r="X396" t="s">
         <v>499</v>
@@ -44965,10 +44967,10 @@
         <v>0</v>
       </c>
       <c r="M397">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N397">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="O397" t="s">
         <v>1813</v>
@@ -44995,7 +44997,7 @@
         <v>496</v>
       </c>
       <c r="W397" t="s">
-        <v>30</v>
+        <v>119</v>
       </c>
       <c r="X397" t="s">
         <v>499</v>
@@ -45063,10 +45065,10 @@
         <v>0</v>
       </c>
       <c r="M398">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N398">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="O398" t="s">
         <v>1813</v>
@@ -45093,7 +45095,7 @@
         <v>496</v>
       </c>
       <c r="W398" t="s">
-        <v>30</v>
+        <v>119</v>
       </c>
       <c r="X398" t="s">
         <v>499</v>
@@ -45161,10 +45163,10 @@
         <v>0</v>
       </c>
       <c r="M399">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N399">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="O399" t="s">
         <v>1655</v>
@@ -45191,7 +45193,7 @@
         <v>496</v>
       </c>
       <c r="W399" t="s">
-        <v>30</v>
+        <v>119</v>
       </c>
       <c r="X399" t="s">
         <v>499</v>
@@ -45259,10 +45261,10 @@
         <v>0</v>
       </c>
       <c r="M400">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N400">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="O400" t="s">
         <v>1655</v>
@@ -45289,7 +45291,7 @@
         <v>496</v>
       </c>
       <c r="W400" t="s">
-        <v>30</v>
+        <v>119</v>
       </c>
       <c r="X400" t="s">
         <v>499</v>
